--- a/presentations/Q3-DA-Review/DA Review - Data Science Club.xlsx
+++ b/presentations/Q3-DA-Review/DA Review - Data Science Club.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steven.mortimer/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steven.mortimer/darden/club-resources/presentations/Q3-DA-Review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE4567B-4976-4049-BABA-EA9992387BF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88984EE1-F842-3441-97EB-168162B96CFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15540" activeTab="2" xr2:uid="{9999229E-6884-134F-B654-285C0C0826DB}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15540" activeTab="3" xr2:uid="{9999229E-6884-134F-B654-285C0C0826DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hypothesis Testing" sheetId="1" r:id="rId1"/>
     <sheet name="T-Test" sheetId="4" r:id="rId2"/>
     <sheet name="Regression" sheetId="3" r:id="rId3"/>
     <sheet name="Regr. Results - One Variable" sheetId="9" r:id="rId4"/>
+    <sheet name="Regr. Results - Two Variable" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0" concurrentManualCount="4"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="124">
   <si>
     <t>T</t>
   </si>
@@ -276,9 +277,6 @@
     <t>Standard Error</t>
   </si>
   <si>
-    <t>NORMSDIST</t>
-  </si>
-  <si>
     <t>Variable 1</t>
   </si>
   <si>
@@ -524,9 +522,6 @@
       </rPr>
       <t xml:space="preserve"> = 0</t>
     </r>
-  </si>
-  <si>
-    <t>TDIST</t>
   </si>
   <si>
     <t>Standard Error of Diff.</t>
@@ -1267,25 +1262,97 @@
     <t>Errors in Data</t>
   </si>
   <si>
-    <t xml:space="preserve"> = .69046</t>
+    <t xml:space="preserve"> = .67764</t>
   </si>
   <si>
-    <t xml:space="preserve"> = .67764</t>
+    <t>Residuals Squared</t>
+  </si>
+  <si>
+    <t>(Errors in Data)^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = .69460</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 – </t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>One Variable Regression…</t>
+  </si>
+  <si>
+    <t>SIGNIFICANT?</t>
+  </si>
+  <si>
+    <t>DIRECTION</t>
+  </si>
+  <si>
+    <t>REGRESSION FORMULA</t>
+  </si>
+  <si>
+    <t>INTERPRETATION</t>
+  </si>
+  <si>
+    <t>ASSUMPTION CHECKING</t>
+  </si>
+  <si>
+    <t>The coefficient for Method B is negative and statistcally significant, meaning that, even account for the advertising spend, sales are lower when Method B is employed.</t>
+  </si>
+  <si>
+    <t>Our regression formula indicates that estimated sales are $164.5 million when running Method B with an advertising budget of $50 million.</t>
+  </si>
+  <si>
+    <r>
+      <t>There is statistically significant evidence that advertising is positively related to sales (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">p </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt; .0001). This means that additional advertising usually leads to higher sales.</t>
+    </r>
+  </si>
+  <si>
+    <t>By all of these measures, the two-variable model is better!</t>
+  </si>
+  <si>
+    <t>t-distribution</t>
+  </si>
+  <si>
+    <t>normal distribution</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="9">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0000000"/>
-    <numFmt numFmtId="170" formatCode="0.00000"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
-    <numFmt numFmtId="173" formatCode="0.0"/>
-    <numFmt numFmtId="181" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="179" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1385,8 +1452,29 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Cambria Math"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1401,7 +1489,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1534,22 +1628,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1557,24 +1651,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1604,12 +1680,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1617,44 +1693,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1665,9 +1722,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="37" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1676,14 +1730,118 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1819,7 +1977,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Regr. Results - One Variable'!$C$27:$C$46</c:f>
+              <c:f>'Regr. Results - One Variable'!$C$33:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2285,7 +2443,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Regr. Results - One Variable'!$B$27:$B$46</c:f>
+              <c:f>'Regr. Results - One Variable'!$B$33:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2468,6 +2626,1486 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Advertising (in millions)  Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Regression!$C$6:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>28.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Regr. Results - Two Variable'!$C$33:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-2.7290918823131278</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0610422282981347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0801939640541036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.85940185497148</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.0591698377629086</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.72745150898649058</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.7177614816449136</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.0572013897709667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-10.237973547705906</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.52801160086042387</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-11.054481250793856</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.021445893470315</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-13.403207005287101</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.3980291870651342</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3384533191871526</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.6899795330501632</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.725306683145135</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4801136436613831</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.209944360640776</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-22.985695642857763</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7C28-7D43-888A-792DC26D34E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1424978431"/>
+        <c:axId val="1453778335"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1424978431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Advertising (in millions)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1453778335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1453778335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1424978431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Advertising Method  Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Regr. Results - Two Variable'!$G$33:$G$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Regr. Results - Two Variable'!$C$33:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-2.7290918823131278</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0610422282981347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0801939640541036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.85940185497148</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.0591698377629086</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.72745150898649058</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.7177614816449136</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.0572013897709667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-10.237973547705906</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.52801160086042387</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-11.054481250793856</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.021445893470315</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-13.403207005287101</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.3980291870651342</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3384533191871526</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.6899795330501632</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.725306683145135</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4801136436613831</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.209944360640776</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-22.985695642857763</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3E5C-CA4B-A6E8-810EFDC94E8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1487443919"/>
+        <c:axId val="1487445599"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1487443919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Advertising Method</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1487445599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1487445599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1487443919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Advertising (in millions) Line Fit  Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Sales (in millions)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Regression!$C$6:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>28.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Regression!$B$6:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>161.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>211.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>166.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>199.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>186.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>187.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>233.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>219.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>211.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>197.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>165.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>158.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>152.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>172.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>124.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>180.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>165.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>163.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>75.900000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-41FC-FB40-9555-AD2BFE991493}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Predicted Sales (in millions)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Regression!$C$6:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>28.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Regr. Results - Two Variable'!$B$33:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>164.32909188231312</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>207.83895777170187</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158.71980603594591</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>184.34059814502851</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>195.55916983776291</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>187.82745150898648</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>234.21776148164491</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>223.75720138977096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>221.93797354770589</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>196.77198839913959</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>176.35448125079387</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>154.97855410652969</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>171.50320700528709</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>143.00197081293487</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>167.56154668081285</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>120.11002046694983</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>164.07469331685488</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>163.61988635633861</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>167.40994436064076</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>98.885695642857769</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-41FC-FB40-9555-AD2BFE991493}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1452191487"/>
+        <c:axId val="1452193167"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1452191487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Advertising (in millions)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1452193167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1452193167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sales (in millions)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1452191487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Advertising Method Line Fit  Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Sales (in millions)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Regr. Results - Two Variable'!$G$33:$G$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Regr. Results - Two Variable'!$E$33:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>161.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>211.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>166.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>199.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>186.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>187.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>233.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>219.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>211.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>197.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>165.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>158.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>152.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>172.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>124.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>180.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>165.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>163.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>75.900000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9EEB-2342-BA67-67913173E69E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Predicted Sales (in millions)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Regr. Results - Two Variable'!$G$33:$G$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Regr. Results - Two Variable'!$B$33:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>164.32909188231312</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>207.83895777170187</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158.71980603594591</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>184.34059814502851</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>195.55916983776291</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>187.82745150898648</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>234.21776148164491</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>223.75720138977096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>221.93797354770589</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>196.77198839913959</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>176.35448125079387</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>154.97855410652969</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>171.50320700528709</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>143.00197081293487</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>167.56154668081285</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>120.11002046694983</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>164.07469331685488</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>163.61988635633861</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>167.40994436064076</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>98.885695642857769</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9EEB-2342-BA67-67913173E69E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1452350607"/>
+        <c:axId val="1452352287"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1452350607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Advertising Method</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1452352287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1452352287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sales (in millions)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1452350607"/>
+        <c:crossesAt val="-1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -2478,8 +4116,8 @@
       <xdr:rowOff>292099</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2286000" cy="939801"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -2759,7 +4397,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -2857,8 +4495,8 @@
       <xdr:rowOff>292099</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2133600" cy="939801"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -3119,7 +4757,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -3217,8 +4855,8 @@
       <xdr:rowOff>292099</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2489200" cy="939801"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -3498,7 +5136,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -3601,8 +5239,8 @@
       <xdr:rowOff>292099</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2387600" cy="939801"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -3848,7 +5486,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -3933,8 +5571,8 @@
       <xdr:rowOff>279400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2387600" cy="939801"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -4180,7 +5818,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -4265,8 +5903,8 @@
       <xdr:rowOff>279400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2387600" cy="939801"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -4512,7 +6150,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -4594,18 +6232,205 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6172200" cy="393700"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53722A9D-BE6D-AE48-BE4E-6D42A54C4967}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6642100" y="1905000"/>
+              <a:ext cx="6172200" cy="393700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="91440" rIns="0" bIns="91440" rtlCol="0" anchor="ctr" anchorCtr="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" b="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1800" b="0" i="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑆𝑎𝑙𝑒𝑠</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=1.516∗</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝐴𝑑𝑣𝑒𝑟𝑡𝑖𝑠𝑖𝑛𝑔</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>−33.000∗</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑀𝑒𝑡h𝑜𝑑</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t> +121.729 </m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800"/>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53722A9D-BE6D-AE48-BE4E-6D42A54C4967}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6642100" y="1905000"/>
+              <a:ext cx="6172200" cy="393700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="91440" rIns="0" bIns="91440" rtlCol="0" anchor="ctr" anchorCtr="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" b="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> 𝑆𝑎𝑙𝑒𝑠=1.516∗𝐴𝑑𝑣𝑒𝑟𝑡𝑖𝑠𝑖𝑛𝑔−33.000∗𝑀𝑒𝑡ℎ𝑜𝑑 +121.729 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800"/>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4633,15 +6458,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4669,9 +6494,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>139699</xdr:rowOff>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2578100" cy="558801"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4689,7 +6514,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3086100" y="558799"/>
+              <a:off x="3111500" y="330199"/>
               <a:ext cx="2578100" cy="558801"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4864,7 +6689,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3086100" y="558799"/>
+              <a:off x="3111500" y="330199"/>
               <a:ext cx="2578100" cy="558801"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4946,12 +6771,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3771900" cy="393700"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -5044,7 +6869,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -5116,7 +6941,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3771900" cy="393700"/>
@@ -5208,7 +7033,7 @@
                     <a:rPr lang="en-US" sz="1800" b="0" i="1">
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                     </a:rPr>
-                    <m:t>∗                      </m:t>
+                    <m:t>∗</m:t>
                   </m:r>
                   <m:r>
                     <a:rPr lang="en-US" sz="1800" b="0" i="1">
@@ -5220,7 +7045,7 @@
                     <a:rPr lang="en-US" sz="1800" b="0" i="1">
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                     </a:rPr>
-                    <m:t>+</m:t>
+                    <m:t>                      +</m:t>
                   </m:r>
                   <m:r>
                     <a:rPr lang="en-US" sz="1800" b="0" i="1">
@@ -5299,7 +7124,7 @@
                 <a:rPr lang="en-US" sz="1800" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>         𝑦=     𝑚∗                      𝑥+𝑏 </a:t>
+                <a:t>         𝑦=     𝑚∗𝑥                      +𝑏 </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1800"/>
@@ -5315,11 +7140,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>25399</xdr:rowOff>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3556000" cy="800101"/>
+    <xdr:ext cx="2679700" cy="698501"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -5335,8 +7160,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3086100" y="1155699"/>
-              <a:ext cx="3556000" cy="800101"/>
+              <a:off x="3111500" y="952499"/>
+              <a:ext cx="2679700" cy="698501"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5564,14 +7389,11 @@
                     <a:rPr lang="en-US" sz="1800" b="0" i="1">
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                     </a:rPr>
-                    <m:t>=1 −</m:t>
+                    <m:t>=</m:t>
                   </m:r>
                 </m:oMath>
               </a14:m>
-              <a:r>
-                <a:rPr lang="en-US" sz="3200"/>
-                <a:t> </a:t>
-              </a:r>
+              <a:endParaRPr lang="en-US" sz="3200"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -5590,8 +7412,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3086100" y="1155699"/>
-              <a:ext cx="3556000" cy="800101"/>
+              <a:off x="3111500" y="952499"/>
+              <a:ext cx="2679700" cy="698501"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5655,10 +7477,758 @@
                 <a:rPr lang="en-US" sz="1800" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑆𝑆𝐸〗_𝑀𝑜𝑑𝑒𝑙⁄((𝑛 −𝐾) ))/(〖𝑆𝑆𝐸〗_𝐷𝑎𝑡𝑎⁄((𝑛−1) ))=1 −</a:t>
+                <a:t>𝑆𝑆𝐸〗_𝑀𝑜𝑑𝑒𝑙⁄((𝑛 −𝐾) ))/(〖𝑆𝑆𝐸〗_𝐷𝑎𝑡𝑎⁄((𝑛−1) ))=</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="3200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Elbow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C23546CE-6B75-994D-9A01-261E3F0F4BB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2501900" y="609600"/>
+          <a:ext cx="609600" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB2E965-F7C6-764D-9A12-1CE72DCD02CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2501900" y="1282700"/>
+          <a:ext cx="558800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2882900" cy="571500"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="TextBox 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F476624A-614A-FA4D-98F8-1BFEFE491DC6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3073400" y="1651000"/>
+              <a:ext cx="2882900" cy="571500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="6350">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="91440" rIns="0" bIns="91440" rtlCol="0" anchor="ctr" anchorCtr="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2000" b="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1800" b="0" i="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑆𝐸</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑀𝑜𝑑𝑒𝑙</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1800" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1800" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:f>
+                        <m:fPr>
+                          <m:type m:val="skw"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1800" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:fPr>
+                        <m:num>
+                          <m:sSub>
+                            <m:sSubPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1800" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSubPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑆𝑆𝐸</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:sub>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑀𝑜𝑑𝑒𝑙</m:t>
+                              </m:r>
+                            </m:sub>
+                          </m:sSub>
+                        </m:num>
+                        <m:den>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑛</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>−</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝐾</m:t>
+                          </m:r>
+                        </m:den>
+                      </m:f>
+                    </m:e>
+                  </m:rad>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t> =</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="3200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="TextBox 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F476624A-614A-FA4D-98F8-1BFEFE491DC6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3073400" y="1651000"/>
+              <a:ext cx="2882900" cy="571500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="6350">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="91440" rIns="0" bIns="91440" rtlCol="0" anchor="ctr" anchorCtr="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2000" b="0"/>
+                <a:t> </a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" sz="3200"/>
+                <a:rPr lang="en-US" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> 〖𝑆𝐸〗_𝑀𝑜𝑑𝑒𝑙</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=√(〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑆𝑆𝐸〗_𝑀𝑜𝑑𝑒𝑙⁄(𝑛−𝐾))  =</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="3200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Elbow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1611583F-255D-974C-BE3C-B48FAD260393}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2527300" y="1549400"/>
+          <a:ext cx="482600" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1DD659-004D-684B-B4A8-24AC8918EAEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AC07EE-1E3E-A54B-82A5-4C29A39A2234}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF9F37F5-398A-9043-A7DB-58F6384E25E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C9F2256-EC33-4143-8C02-422BEDA8D626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6172200" cy="393700"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB909C58-8C8C-144E-92C9-06F428C53AAC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="4432300"/>
+              <a:ext cx="6172200" cy="393700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="91440" rIns="0" bIns="91440" rtlCol="0" anchor="ctr" anchorCtr="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" b="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1800" b="0" i="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑆𝑎𝑙𝑒𝑠</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=1.516∗</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝐴𝑑𝑣𝑒𝑟𝑡𝑖𝑠𝑖𝑛𝑔</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>−33.000∗</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑀𝑒𝑡h𝑜𝑑</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t> +121.729 </m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800"/>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB909C58-8C8C-144E-92C9-06F428C53AAC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="4432300"/>
+              <a:ext cx="6172200" cy="393700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="91440" rIns="0" bIns="91440" rtlCol="0" anchor="ctr" anchorCtr="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" b="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> 𝑆𝑎𝑙𝑒𝑠=1.516∗𝐴𝑑𝑣𝑒𝑟𝑡𝑖𝑠𝑖𝑛𝑔−33.000∗𝑀𝑒𝑡ℎ𝑜𝑑 +121.729 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800"/>
                 <a:t> </a:t>
               </a:r>
             </a:p>
@@ -5971,7 +8541,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" customHeight="1"/>
@@ -5995,12 +8565,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23" customHeight="1">
-      <c r="A1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
+      <c r="A1" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
       <c r="E1" s="2"/>
       <c r="G1" s="4" t="s">
         <v>3</v>
@@ -6010,10 +8580,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="23" customHeight="1">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89"/>
       <c r="E2" s="2"/>
       <c r="G2" s="3" t="s">
         <v>8</v>
@@ -6034,10 +8604,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="23" customHeight="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
       <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
@@ -6057,16 +8627,16 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="23" customHeight="1">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="6"/>
@@ -6077,128 +8647,128 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:13" ht="23" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="17"/>
       <c r="J5" s="7">
         <v>67.5</v>
       </c>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:13" ht="23" customHeight="1">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="22">
         <v>0.05</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="17"/>
       <c r="J6" s="7">
         <v>70.7</v>
       </c>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:13" ht="23" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="23"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="17"/>
       <c r="J7" s="7">
         <v>64.400000000000006</v>
       </c>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:13" ht="23" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
       <c r="J8" s="7">
         <v>58.6</v>
       </c>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:13" ht="23" customHeight="1">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="27"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="21"/>
       <c r="J9" s="7">
         <v>64.8</v>
       </c>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:13" ht="23" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="23"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="17"/>
       <c r="J10" s="7">
         <v>61.2</v>
       </c>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="23" customHeight="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="23"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="17"/>
       <c r="J11" s="7">
         <v>67.8</v>
       </c>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="23" customHeight="1">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="25">
         <f>$M$2-$H$2</f>
         <v>0.99200000000000443</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="17"/>
       <c r="J12" s="7">
         <v>66.8</v>
       </c>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="23" customHeight="1">
-      <c r="A13" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="31">
+      <c r="A13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="25">
         <f>$H$3/SQRT($M$3)</f>
         <v>0.8</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="17"/>
       <c r="J13" s="7">
         <v>68.5</v>
       </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="23" customHeight="1">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="23">
         <f>B12/B13</f>
         <v>1.2400000000000055</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>21</v>
+      <c r="D14" s="17" t="s">
+        <v>123</v>
       </c>
       <c r="J14" s="7">
         <v>76</v>
@@ -6206,17 +8776,17 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:13" ht="23" customHeight="1">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="90">
         <f>(1-NORMSDIST(ABS(B14)))*2</f>
         <v>0.21497539414917166</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="17" t="s">
         <v>19</v>
       </c>
       <c r="J15" s="7">
@@ -6225,15 +8795,15 @@
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:13" ht="23" customHeight="1">
-      <c r="A16" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="45" t="str">
+      <c r="A16" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="38" t="str">
         <f>IF(B15&lt;$B$6,"YES","NO")</f>
         <v>NO</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="32"/>
       <c r="J16" s="7">
         <v>67.3</v>
       </c>
@@ -6246,49 +8816,49 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:15" ht="23" customHeight="1">
-      <c r="A18" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
+      <c r="A18" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="86"/>
       <c r="J18" s="7">
         <v>67.2</v>
       </c>
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:15" ht="23" customHeight="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
+      <c r="A19" s="87"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="89"/>
       <c r="J19" s="7">
         <v>64.8</v>
       </c>
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:15" ht="23" customHeight="1">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
       <c r="J20" s="7">
         <v>65.8</v>
       </c>
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:15" ht="23" customHeight="1">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>51</v>
+      <c r="D21" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="J21" s="7">
         <v>70</v>
@@ -6296,338 +8866,338 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:15" ht="23" customHeight="1">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="23"/>
+      <c r="B22" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="17"/>
       <c r="J22" s="7">
         <v>58.5</v>
       </c>
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:15" ht="23" customHeight="1">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="22">
         <v>0.05</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="17"/>
       <c r="J23" s="7">
         <v>66.400000000000006</v>
       </c>
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:15" ht="23" customHeight="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="23"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="17"/>
       <c r="J24" s="7">
         <v>65.599999999999994</v>
       </c>
       <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:15" ht="23" customHeight="1">
-      <c r="A25" s="24"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="40"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
       <c r="J25" s="7">
         <v>67.2</v>
       </c>
       <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:15" ht="23" customHeight="1">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="27"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="21"/>
       <c r="J26" s="7">
         <v>66.7</v>
       </c>
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:15" ht="23" customHeight="1">
-      <c r="A27" s="24"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="23"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="17"/>
     </row>
     <row r="28" spans="1:15" ht="23" customHeight="1">
-      <c r="A28" s="24"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="23"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="1:15" ht="23" customHeight="1">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="25">
         <f>$M$2-$H$2</f>
         <v>0.99200000000000443</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" spans="1:15" ht="23" customHeight="1">
-      <c r="A30" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="31">
+      <c r="A30" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="25">
         <f>$H$3/SQRT($M$3)</f>
         <v>0.8</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="17"/>
     </row>
     <row r="31" spans="1:15" ht="23" customHeight="1">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="29">
+      <c r="B31" s="23">
         <f>B29/B30</f>
         <v>1.2400000000000055</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="23" t="s">
-        <v>21</v>
+      <c r="D31" s="17" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="23" customHeight="1">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="43">
+      <c r="B32" s="90">
         <f>1-NORMSDIST(B31)</f>
         <v>0.10748769707458583</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="26" t="s">
+      <c r="D32" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
+      <c r="F32" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
     </row>
     <row r="33" spans="1:15" ht="23" customHeight="1">
-      <c r="A33" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="45" t="str">
+      <c r="A33" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="38" t="str">
         <f>IF(B32&lt;$B$23,"YES","NO")</f>
         <v>NO</v>
       </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="38"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="32"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
     </row>
     <row r="35" spans="1:15" ht="23" customHeight="1">
-      <c r="A35" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
+      <c r="A35" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="86"/>
     </row>
     <row r="36" spans="1:15" ht="23" customHeight="1">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
+      <c r="A36" s="87"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="89"/>
     </row>
     <row r="37" spans="1:15" ht="23" customHeight="1">
-      <c r="A37" s="21"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="23"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
     </row>
     <row r="38" spans="1:15" ht="23" customHeight="1">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="26" t="s">
+      <c r="B38" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="27" t="s">
-        <v>53</v>
+      <c r="D38" s="21" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="23" customHeight="1">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="23"/>
+      <c r="B39" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="17"/>
     </row>
     <row r="40" spans="1:15" ht="23" customHeight="1">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="28">
+      <c r="B40" s="22">
         <v>0.05</v>
       </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="17"/>
     </row>
     <row r="41" spans="1:15" ht="23" customHeight="1">
-      <c r="A41" s="24"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="23"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="17"/>
     </row>
     <row r="42" spans="1:15" ht="23" customHeight="1">
-      <c r="A42" s="24"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="40"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="34"/>
     </row>
     <row r="43" spans="1:15" ht="23" customHeight="1">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="27"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="21"/>
     </row>
     <row r="44" spans="1:15" ht="23" customHeight="1">
-      <c r="A44" s="24"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="23"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:15" ht="23" customHeight="1">
-      <c r="A45" s="24"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="23"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="17"/>
     </row>
     <row r="46" spans="1:15" ht="23" customHeight="1">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="31">
+      <c r="B46" s="25">
         <f>$M$2-$H$2</f>
         <v>0.99200000000000443</v>
       </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="17"/>
     </row>
     <row r="47" spans="1:15" ht="23" customHeight="1">
-      <c r="A47" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="31">
+      <c r="A47" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="25">
         <f>$H$3/SQRT($M$3)</f>
         <v>0.8</v>
       </c>
-      <c r="C47" s="29"/>
-      <c r="D47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="17"/>
     </row>
     <row r="48" spans="1:15" ht="23" customHeight="1">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="29">
+      <c r="B48" s="23">
         <f>B46/B47</f>
         <v>1.2400000000000055</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="23" t="s">
-        <v>21</v>
+      <c r="D48" s="17" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="23" customHeight="1">
-      <c r="A49" s="42" t="s">
+      <c r="A49" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="43">
+      <c r="B49" s="90">
         <f>NORMSDIST(B48)</f>
         <v>0.89251230292541417</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" s="26" t="s">
+      <c r="D49" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F49" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="50"/>
-      <c r="N49" s="50"/>
-      <c r="O49" s="50"/>
+      <c r="F49" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="53"/>
+      <c r="N49" s="53"/>
+      <c r="O49" s="53"/>
     </row>
     <row r="50" spans="1:15" ht="23" customHeight="1">
-      <c r="A50" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="45" t="str">
+      <c r="A50" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="38" t="str">
         <f>IF(B49&lt;$B40,"YES","NO")</f>
         <v>NO</v>
       </c>
-      <c r="C50" s="46"/>
-      <c r="D50" s="38"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="50"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="50"/>
-      <c r="M50" s="50"/>
-      <c r="N50" s="50"/>
-      <c r="O50" s="50"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="32"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="53"/>
+      <c r="N50" s="53"/>
+      <c r="O50" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6647,7 +9217,7 @@
   <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" customHeight="1"/>
@@ -6673,32 +9243,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1">
-      <c r="A1" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
+      <c r="A1" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
       <c r="E1" s="2"/>
       <c r="G1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="19"/>
+        <v>33</v>
+      </c>
+      <c r="H1" s="13"/>
       <c r="L1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="23" customHeight="1">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89"/>
       <c r="E2" s="2"/>
       <c r="G2" s="7">
         <v>64.8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J2" s="5">
         <f>AVERAGE($G$2:$G$17)</f>
@@ -6717,15 +9287,15 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="23" customHeight="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
       <c r="G3" s="7">
         <v>64.599999999999994</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J3" s="5">
         <f>STDEV($G$2:$G$17)</f>
@@ -6736,7 +9306,7 @@
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O3" s="5">
         <f>STDEV($L$2:$L$26)</f>
@@ -6744,17 +9314,17 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="23" customHeight="1">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>35</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>36</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -6781,14 +9351,14 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="23" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="17"/>
       <c r="G5" s="7">
         <v>63.3</v>
       </c>
@@ -6798,14 +9368,14 @@
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:15" ht="23" customHeight="1">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="22">
         <v>0.05</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="17"/>
       <c r="G6" s="7">
         <v>64</v>
       </c>
@@ -6815,10 +9385,10 @@
       <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:15" ht="23" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="23"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="17"/>
       <c r="G7" s="7">
         <v>64.3</v>
       </c>
@@ -6828,10 +9398,10 @@
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:15" ht="23" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
       <c r="G8" s="7">
         <v>67.099999999999994</v>
       </c>
@@ -6841,12 +9411,12 @@
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:15" ht="23" customHeight="1">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="27"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="21"/>
       <c r="G9" s="7">
         <v>65</v>
       </c>
@@ -6856,10 +9426,10 @@
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:15" ht="23" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="23"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="17"/>
       <c r="G10" s="7">
         <v>69.400000000000006</v>
       </c>
@@ -6869,10 +9439,10 @@
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:15" ht="23" customHeight="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="23"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="17"/>
       <c r="G11" s="7">
         <v>66.2</v>
       </c>
@@ -6882,15 +9452,15 @@
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:15" ht="23" customHeight="1">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="25">
         <f>$O$2-$J$2</f>
         <v>1.9982499999999987</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="17"/>
       <c r="G12" s="7">
         <v>65.7</v>
       </c>
@@ -6900,18 +9470,18 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:15" ht="23" customHeight="1">
-      <c r="A13" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="31">
+      <c r="A13" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="25">
         <f>SQRT((($J$3^2)/$J$4)+(($O$3^2)/$O$4))</f>
         <v>0.8850535176850417</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>60</v>
+      <c r="D13" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="G13" s="7">
         <v>65</v>
@@ -6922,23 +9492,23 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:15" ht="23" customHeight="1">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="40">
         <f>B12/B13</f>
         <v>2.2577730725557132</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>37</v>
+      <c r="D14" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="G14" s="7">
         <v>65.7</v>
       </c>
-      <c r="I14" s="48"/>
+      <c r="I14" s="41"/>
       <c r="J14" s="8"/>
       <c r="L14" s="7">
         <v>76</v>
@@ -6946,17 +9516,17 @@
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:15" ht="23" customHeight="1">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="90">
         <f>TDIST(B14,ROUND((((($J$3^2)/$J$4)+(($O$3^2)/$O$4))^2) / ((((($J$3^2)/$J$4)^2)/($J$4-1))+(((($O$3^2)/$O$4)^2)/($O$4-1))),0),2)</f>
         <v>3.0301233521560972E-2</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="17" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="7">
@@ -6968,15 +9538,15 @@
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:15" ht="23" customHeight="1">
-      <c r="A16" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="28" t="str">
+      <c r="A16" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="22" t="str">
         <f>IF(B15&lt;$B$6,"YES","NO")</f>
         <v>YES</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="17"/>
       <c r="G16" s="7">
         <v>64.2</v>
       </c>
@@ -6986,10 +9556,10 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" ht="23" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="23"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="17"/>
       <c r="G17" s="7">
         <v>63.2</v>
       </c>
@@ -6999,30 +9569,30 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" ht="23" customHeight="1">
-      <c r="A18" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="23"/>
+      <c r="A18" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="17"/>
       <c r="L18" s="7">
         <v>67.2</v>
       </c>
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" ht="23" customHeight="1">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="25">
         <f>B14</f>
         <v>2.2577730725557132</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>21</v>
+      <c r="D19" s="17" t="s">
+        <v>123</v>
       </c>
       <c r="L19" s="7">
         <v>64.8</v>
@@ -7030,17 +9600,17 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" ht="23" customHeight="1">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="30">
         <f>(1-NORMSDIST(ABS(B19)))*2</f>
         <v>2.3959810829484951E-2</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="32" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="7">
@@ -7055,49 +9625,49 @@
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:13" ht="23" customHeight="1">
-      <c r="A22" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
+      <c r="A22" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
       <c r="L22" s="7">
         <v>58.5</v>
       </c>
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" ht="23" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
+      <c r="A23" s="87"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="89"/>
       <c r="L23" s="7">
         <v>66.400000000000006</v>
       </c>
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:13" ht="23" customHeight="1">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
       <c r="L24" s="7">
         <v>65.599999999999994</v>
       </c>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:13" ht="23" customHeight="1">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="26" t="s">
+      <c r="B25" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="27" t="s">
-        <v>58</v>
+      <c r="D25" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="L25" s="7">
         <v>67.2</v>
@@ -7105,401 +9675,401 @@
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13" ht="23" customHeight="1">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="23"/>
+      <c r="B26" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="17"/>
       <c r="L26" s="7">
         <v>66.7</v>
       </c>
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" ht="23" customHeight="1">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="22">
         <v>0.05</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="17"/>
     </row>
     <row r="28" spans="1:13" ht="23" customHeight="1">
-      <c r="A28" s="24"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="23"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="1:13" ht="23" customHeight="1">
-      <c r="A29" s="24"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="23"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" spans="1:13" ht="23" customHeight="1">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="17"/>
     </row>
     <row r="31" spans="1:13" ht="23" customHeight="1">
-      <c r="A31" s="30"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="23"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="17"/>
     </row>
     <row r="32" spans="1:13" ht="23" customHeight="1">
-      <c r="A32" s="24"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="23"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" spans="1:4" ht="23" customHeight="1">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="31">
+      <c r="B33" s="25">
         <f>$O$2-$J$2</f>
         <v>1.9982499999999987</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="17"/>
     </row>
     <row r="34" spans="1:4" ht="23" customHeight="1">
-      <c r="A34" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="31">
+      <c r="A34" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="25">
         <f>SQRT((($J$3^2)/$J$4)+(($O$3^2)/$O$4))</f>
         <v>0.8850535176850417</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="23" t="s">
-        <v>60</v>
+      <c r="D34" s="17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="23" customHeight="1">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="31">
+      <c r="B35" s="25">
         <f>B33/B34</f>
         <v>2.2577730725557132</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="23" t="s">
-        <v>37</v>
+      <c r="D35" s="17" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="23" customHeight="1">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="43">
+      <c r="B36" s="90">
         <f>TDIST(B35,ROUND((((($J$3^2)/$J$4)+(($O$3^2)/$O$4))^2) / ((((($J$3^2)/$J$4)^2)/($J$4-1))+(((($O$3^2)/$O$4)^2)/($O$4-1))),0),1)</f>
         <v>1.5150616760780486E-2</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="23" t="s">
-        <v>28</v>
+      <c r="D36" s="17" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="23" customHeight="1">
-      <c r="A37" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="28" t="str">
+      <c r="A37" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="22" t="str">
         <f>IF(B36&lt;$B$27,"YES","NO")</f>
         <v>YES</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="17"/>
     </row>
     <row r="38" spans="1:4" ht="23" customHeight="1">
-      <c r="A38" s="33"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="23"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="17"/>
     </row>
     <row r="39" spans="1:4" ht="23" customHeight="1">
-      <c r="A39" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="23"/>
+      <c r="A39" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="17"/>
     </row>
     <row r="40" spans="1:4" ht="23" customHeight="1">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="31">
+      <c r="B40" s="25">
         <f>B35</f>
         <v>2.2577730725557132</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="23" t="s">
-        <v>21</v>
+      <c r="D40" s="17" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="23" customHeight="1">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="36">
+      <c r="B41" s="30">
         <f>1-NORMSDIST(B40)</f>
         <v>1.1979905414742476E-2</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="38" t="s">
-        <v>28</v>
+      <c r="D41" s="32" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="23" customHeight="1">
-      <c r="A44" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
+      <c r="A44" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="85"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="86"/>
     </row>
     <row r="45" spans="1:4" ht="23" customHeight="1">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="18"/>
+      <c r="A45" s="87"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="89"/>
     </row>
     <row r="46" spans="1:4" ht="23" customHeight="1">
-      <c r="A46" s="21"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="23"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="17"/>
     </row>
     <row r="47" spans="1:4" ht="23" customHeight="1">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="26" t="s">
+      <c r="B47" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="27" t="s">
-        <v>56</v>
+      <c r="D47" s="21" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="23" customHeight="1">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="25"/>
-      <c r="D48" s="23"/>
+      <c r="B48" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="17"/>
     </row>
     <row r="49" spans="1:14" ht="23" customHeight="1">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="28">
+      <c r="B49" s="22">
         <v>0.05</v>
       </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="17"/>
     </row>
     <row r="50" spans="1:14" ht="23" customHeight="1">
-      <c r="A50" s="24"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="23"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:14" ht="23" customHeight="1">
-      <c r="A51" s="24"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="23"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="17"/>
     </row>
     <row r="52" spans="1:14" ht="23" customHeight="1">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="23"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="17"/>
     </row>
     <row r="53" spans="1:14" ht="23" customHeight="1">
-      <c r="A53" s="30"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="23"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="17"/>
     </row>
     <row r="54" spans="1:14" ht="23" customHeight="1">
-      <c r="A54" s="24"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="23"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="17"/>
     </row>
     <row r="55" spans="1:14" ht="23" customHeight="1">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="31">
+      <c r="B55" s="25">
         <f>$O$2-$J$2</f>
         <v>1.9982499999999987</v>
       </c>
-      <c r="C55" s="29"/>
-      <c r="D55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="17"/>
     </row>
     <row r="56" spans="1:14" ht="23" customHeight="1">
-      <c r="A56" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B56" s="31">
+      <c r="A56" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" s="25">
         <f>SQRT((($J$3^2)/$J$4)+(($O$3^2)/$O$4))</f>
         <v>0.8850535176850417</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="23" t="s">
-        <v>60</v>
+      <c r="D56" s="17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="23" customHeight="1">
-      <c r="A57" s="32" t="s">
+      <c r="A57" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="31">
+      <c r="B57" s="25">
         <f>B55/B56</f>
         <v>2.2577730725557132</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="23" t="s">
-        <v>37</v>
+      <c r="D57" s="17" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="23" customHeight="1">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="43">
+      <c r="B58" s="90">
         <f>1-TDIST(B57,ROUND((((($J$3^2)/$J$4)+(($O$3^2)/$O$4))^2) / ((((($J$3^2)/$J$4)^2)/($J$4-1))+(((($O$3^2)/$O$4)^2)/($O$4-1))),0),1)</f>
         <v>0.98484938323921956</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E58" s="26" t="s">
+      <c r="D58" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F58" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="50"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="50"/>
-      <c r="L58" s="50"/>
-      <c r="M58" s="50"/>
-      <c r="N58" s="50"/>
+      <c r="F58" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="53"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="53"/>
+      <c r="M58" s="53"/>
+      <c r="N58" s="53"/>
     </row>
     <row r="59" spans="1:14" ht="23" customHeight="1">
-      <c r="A59" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" s="28" t="str">
+      <c r="A59" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" s="22" t="str">
         <f>IF(B58&lt;$B$49,"YES","NO")</f>
         <v>NO</v>
       </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="50"/>
-      <c r="L59" s="50"/>
-      <c r="M59" s="50"/>
-      <c r="N59" s="50"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="53"/>
+      <c r="J59" s="53"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="53"/>
+      <c r="M59" s="53"/>
+      <c r="N59" s="53"/>
     </row>
     <row r="60" spans="1:14" ht="23" customHeight="1">
-      <c r="A60" s="24"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="23"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="17"/>
     </row>
     <row r="61" spans="1:14" ht="23" customHeight="1">
-      <c r="A61" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="23"/>
+      <c r="A61" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="17"/>
     </row>
     <row r="62" spans="1:14" ht="23" customHeight="1">
-      <c r="A62" s="32" t="s">
+      <c r="A62" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="31">
+      <c r="B62" s="25">
         <f>B57</f>
         <v>2.2577730725557132</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C62" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="23" t="s">
-        <v>21</v>
+      <c r="D62" s="17" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="23" customHeight="1">
-      <c r="A63" s="35" t="s">
+      <c r="A63" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B63" s="36">
+      <c r="B63" s="30">
         <f>NORMSDIST(B62)</f>
         <v>0.98802009458525752</v>
       </c>
-      <c r="C63" s="37" t="s">
+      <c r="C63" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="38" t="s">
-        <v>33</v>
+      <c r="D63" s="32" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="23" customHeight="1">
-      <c r="A65" s="20" t="s">
-        <v>71</v>
+      <c r="A65" s="14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="23" customHeight="1">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B66"/>
       <c r="C66"/>
@@ -7512,15 +10082,15 @@
     <row r="68" spans="1:3" ht="23" customHeight="1">
       <c r="A68" s="12"/>
       <c r="B68" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="23" customHeight="1">
       <c r="A69" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B69" s="10">
         <v>66.992000000000004</v>
@@ -7531,7 +10101,7 @@
     </row>
     <row r="70" spans="1:3" ht="23" customHeight="1">
       <c r="A70" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B70" s="10">
         <v>15.321599999999991</v>
@@ -7542,7 +10112,7 @@
     </row>
     <row r="71" spans="1:3" ht="23" customHeight="1">
       <c r="A71" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B71" s="10">
         <v>25</v>
@@ -7553,7 +10123,7 @@
     </row>
     <row r="72" spans="1:3" ht="23" customHeight="1">
       <c r="A72" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B72" s="10">
         <v>0</v>
@@ -7562,7 +10132,7 @@
     </row>
     <row r="73" spans="1:3" ht="23" customHeight="1">
       <c r="A73" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B73" s="10">
         <v>35</v>
@@ -7571,7 +10141,7 @@
     </row>
     <row r="74" spans="1:3" ht="23" customHeight="1">
       <c r="A74" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B74" s="10">
         <v>2.2577730725557132</v>
@@ -7580,7 +10150,7 @@
     </row>
     <row r="75" spans="1:3" ht="23" customHeight="1">
       <c r="A75" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B75" s="10">
         <v>1.5150616760780486E-2</v>
@@ -7589,7 +10159,7 @@
     </row>
     <row r="76" spans="1:3" ht="23" customHeight="1">
       <c r="A76" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B76" s="10">
         <v>1.6895724577802647</v>
@@ -7598,7 +10168,7 @@
     </row>
     <row r="77" spans="1:3" ht="23" customHeight="1">
       <c r="A77" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B77" s="10">
         <v>3.0301233521560972E-2</v>
@@ -7607,7 +10177,7 @@
     </row>
     <row r="78" spans="1:3" ht="23" customHeight="1" thickBot="1">
       <c r="A78" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B78" s="11">
         <v>2.0301079282503438</v>
@@ -7628,10 +10198,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295F6195-A543-C547-A8DD-57D517E6B009}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7640,351 +10210,363 @@
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="6" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="49" customHeight="1">
-      <c r="A1" s="52">
+    <row r="1" spans="1:13" ht="49" customHeight="1">
+      <c r="A1" s="94">
         <v>1</v>
       </c>
-      <c r="B1" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-    </row>
-    <row r="2" spans="1:12" ht="49" customHeight="1">
-      <c r="A2" s="52">
+      <c r="B1" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+    </row>
+    <row r="2" spans="1:13" ht="49" customHeight="1">
+      <c r="A2" s="94">
         <v>2</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-    </row>
-    <row r="3" spans="1:12" ht="49" customHeight="1">
-      <c r="A3" s="52">
+      <c r="B2" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+    </row>
+    <row r="3" spans="1:13" ht="49" customHeight="1">
+      <c r="A3" s="94">
         <v>3</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5" t="s">
+      <c r="B3" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="92">
+        <f>1.516*50 - 33*1 + 121.729</f>
+        <v>164.529</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="19">
+      <c r="A5" s="77"/>
+      <c r="B5" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="19">
+      <c r="A6" s="99">
+        <v>1</v>
+      </c>
+      <c r="B6" s="100">
+        <v>161.6</v>
+      </c>
+      <c r="C6" s="100">
+        <v>28.1</v>
+      </c>
+      <c r="D6" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="7" spans="1:13" ht="19">
+      <c r="A7" s="99">
+        <v>2</v>
+      </c>
+      <c r="B7" s="100">
+        <v>211.9</v>
+      </c>
+      <c r="C7" s="100">
+        <v>56.8</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="19">
+      <c r="A8" s="99">
+        <v>3</v>
+      </c>
+      <c r="B8" s="100">
+        <v>166.8</v>
+      </c>
+      <c r="C8" s="100">
+        <v>24.4</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="19">
+      <c r="A9" s="99">
+        <v>4</v>
+      </c>
+      <c r="B9" s="100">
+        <v>199.2</v>
+      </c>
+      <c r="C9" s="100">
+        <v>41.3</v>
+      </c>
+      <c r="D9" s="77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="19">
+      <c r="A10" s="99">
+        <v>5</v>
+      </c>
+      <c r="B10" s="100">
+        <v>186.5</v>
+      </c>
+      <c r="C10" s="100">
+        <v>48.7</v>
+      </c>
+      <c r="D10" s="77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="19">
+      <c r="A11" s="99">
+        <v>6</v>
+      </c>
+      <c r="B11" s="100">
+        <v>187.1</v>
+      </c>
+      <c r="C11" s="100">
+        <v>43.6</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="19">
+      <c r="A12" s="99">
+        <v>7</v>
+      </c>
+      <c r="B12" s="100">
+        <v>233.5</v>
+      </c>
+      <c r="C12" s="100">
+        <v>74.2</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="19">
+      <c r="A13" s="99">
+        <v>8</v>
+      </c>
+      <c r="B13" s="100">
+        <v>219.7</v>
+      </c>
+      <c r="C13" s="100">
+        <v>67.3</v>
+      </c>
+      <c r="D13" s="77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="19">
+      <c r="A14" s="99">
+        <v>9</v>
+      </c>
+      <c r="B14" s="100">
+        <v>211.7</v>
+      </c>
+      <c r="C14" s="100">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="D14" s="77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="19">
+      <c r="A15" s="99">
+        <v>10</v>
+      </c>
+      <c r="B15" s="100">
+        <v>197.3</v>
+      </c>
+      <c r="C15" s="100">
+        <v>49.5</v>
+      </c>
+      <c r="D15" s="77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="19">
+      <c r="A16" s="99">
+        <v>11</v>
+      </c>
+      <c r="B16" s="100">
+        <v>165.3</v>
+      </c>
+      <c r="C16" s="100">
+        <v>57.8</v>
+      </c>
+      <c r="D16" s="77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="60">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>161.6</v>
-      </c>
-      <c r="C6" s="1">
-        <v>28.1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="60">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
-        <v>211.9</v>
-      </c>
-      <c r="C7" s="1">
-        <v>56.8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="60">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1">
-        <v>166.8</v>
-      </c>
-      <c r="C8" s="1">
-        <v>24.4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="60">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1">
-        <v>199.2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>41.3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="60">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1">
-        <v>186.5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>48.7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="60">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1">
-        <v>187.1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>43.6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="60">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1">
-        <v>233.5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>74.2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="60">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1">
-        <v>219.7</v>
-      </c>
-      <c r="C13" s="1">
-        <v>67.3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="60">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1">
-        <v>211.7</v>
-      </c>
-      <c r="C14" s="1">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="D14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="60">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1">
-        <v>197.3</v>
-      </c>
-      <c r="C15" s="1">
-        <v>49.5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="60">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1">
-        <v>165.3</v>
-      </c>
-      <c r="C16" s="1">
-        <v>57.8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="60">
+    <row r="17" spans="1:4" ht="19">
+      <c r="A17" s="99">
         <v>12</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="100">
         <v>169</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="100">
         <v>43.7</v>
       </c>
-      <c r="D17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="60">
+      <c r="D17" s="77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="19">
+      <c r="A18" s="99">
         <v>13</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="100">
         <v>158.1</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="100">
         <v>54.6</v>
       </c>
-      <c r="D18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="60">
+      <c r="D18" s="77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="19">
+      <c r="A19" s="99">
         <v>14</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="100">
         <v>152.4</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="100">
         <v>35.799999999999997</v>
       </c>
-      <c r="D19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="60">
+      <c r="D19" s="77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="19">
+      <c r="A20" s="99">
         <v>15</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="100">
         <v>172.9</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="100">
         <v>52</v>
       </c>
-      <c r="D20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="60">
+      <c r="D20" s="77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="19">
+      <c r="A21" s="99">
         <v>16</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="100">
         <v>124.8</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="100">
         <v>20.7</v>
       </c>
-      <c r="D21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="60">
+      <c r="D21" s="77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="19">
+      <c r="A22" s="99">
         <v>17</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="100">
         <v>180.8</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="100">
         <v>49.7</v>
       </c>
-      <c r="D22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="60">
+      <c r="D22" s="77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="19">
+      <c r="A23" s="99">
         <v>18</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="100">
         <v>165.1</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="100">
         <v>49.4</v>
       </c>
-      <c r="D23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="60">
+      <c r="D23" s="77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="19">
+      <c r="A24" s="99">
         <v>19</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="100">
         <v>163.19999999999999</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="100">
         <v>51.9</v>
       </c>
-      <c r="D24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="60">
+      <c r="D24" s="77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="19">
+      <c r="A25" s="99">
         <v>20</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="100">
         <v>75.900000000000006</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="100">
         <v>6.7</v>
       </c>
-      <c r="D25" t="s">
-        <v>78</v>
+      <c r="D25" s="77" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -7997,22 +10579,23 @@
     <mergeCell ref="F2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F46550B-7E2C-8344-B7FC-5DA755FAE6DC}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
@@ -8022,112 +10605,131 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" thickBot="1"/>
-    <row r="3" spans="1:9">
-      <c r="A3" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="54"/>
+    <row r="3" spans="1:9" ht="19">
+      <c r="A3" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="G3" s="47">
+        <f>SUM($E$33:$E$52)</f>
+        <v>7109.4428808114271</v>
+      </c>
+      <c r="H3" s="57" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="10">
+        <v>82</v>
+      </c>
+      <c r="B4" s="74">
         <v>0.83342925240340993</v>
       </c>
-      <c r="G4" s="61">
-        <f>SUMPRODUCT($C$27:$C$46,$C$27:$C$46)</f>
-        <v>7109.4428808114271</v>
-      </c>
-      <c r="H4" s="55" t="s">
-        <v>108</v>
-      </c>
+      <c r="G4" s="48">
+        <f>SUM($H$33:$H$52)</f>
+        <v>23279.447999999997</v>
+      </c>
+      <c r="H4" s="58"/>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
-      <c r="A5" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="67">
+      <c r="A5" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="76">
         <v>0.6946043187617067</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="62">
-        <f>SUMPRODUCT($F$27:$F$46,$F$27:$F$46)</f>
-        <v>23279.447999999997</v>
-      </c>
-      <c r="H5" s="56"/>
+      <c r="C5" s="20"/>
+      <c r="G5" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="47">
+        <f>SUMPRODUCT($C$33:$C$52,$C$33:$C$52)/($B$13)</f>
+        <v>394.96904893396817</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="10">
+        <v>84</v>
+      </c>
+      <c r="B6" s="71">
         <v>0.67763789202624602</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>18</v>
-      </c>
+      <c r="C6" s="20"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="48">
+        <f>SUMPRODUCT($G$33:$G$52,$G$33:$G$52)/($B$8-1)</f>
+        <v>1225.2341052631577</v>
+      </c>
+      <c r="I6" s="58"/>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="63">
+      <c r="B7" s="71">
         <v>19.873828240526986</v>
-      </c>
-      <c r="H7" s="61">
-        <f>SUMPRODUCT($C$27:$C$46,$C$27:$C$46)/(B8-2)</f>
-        <v>394.96904893396817</v>
-      </c>
-      <c r="I7" s="55" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1" thickBot="1">
       <c r="A8" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="11">
         <v>20</v>
       </c>
-      <c r="H8" s="62">
-        <f>SUMPRODUCT($F$27:$F$46,$F$27:$F$46)/(B8-1)</f>
-        <v>1225.2341052631577</v>
-      </c>
-      <c r="I8" s="56"/>
+      <c r="G8" s="47">
+        <f>SUM($E$33:$E$52)</f>
+        <v>7109.4428808114271</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="55">
+        <f>SQRT(G8/G9)</f>
+        <v>19.87382824052699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19">
+      <c r="G9" s="48">
+        <f>B13</f>
+        <v>18</v>
+      </c>
+      <c r="H9" s="59"/>
+      <c r="I9" s="55"/>
     </row>
     <row r="10" spans="1:9" ht="17" thickBot="1">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="12"/>
       <c r="B11" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B12" s="10">
         <v>1</v>
@@ -8147,7 +10749,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B13" s="10">
         <v>18</v>
@@ -8163,7 +10765,7 @@
     </row>
     <row r="14" spans="1:9" ht="17" thickBot="1">
       <c r="A14" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B14" s="11">
         <v>19</v>
@@ -8178,36 +10780,36 @@
     <row r="15" spans="1:9" ht="17" thickBot="1"/>
     <row r="16" spans="1:9">
       <c r="A16" s="12"/>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="57" t="s">
+      <c r="G16" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="H16" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="57" t="s">
+      <c r="I16" s="44" t="s">
         <v>98</v>
-      </c>
-      <c r="H16" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" s="57" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="10">
+        <v>89</v>
+      </c>
+      <c r="B17" s="49">
         <v>93.873801239157203</v>
       </c>
       <c r="C17" s="10">
@@ -8216,7 +10818,7 @@
       <c r="D17" s="10">
         <v>6.9763759436203339</v>
       </c>
-      <c r="E17" s="65">
+      <c r="E17" s="51">
         <v>1.6254593597373962E-6</v>
       </c>
       <c r="F17" s="10">
@@ -8234,9 +10836,9 @@
     </row>
     <row r="18" spans="1:9" ht="17" thickBot="1">
       <c r="A18" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="11">
+        <v>72</v>
+      </c>
+      <c r="B18" s="50">
         <v>1.7622508676318511</v>
       </c>
       <c r="C18" s="11">
@@ -8245,7 +10847,7 @@
       <c r="D18" s="11">
         <v>6.3984318200708907</v>
       </c>
-      <c r="E18" s="66">
+      <c r="E18" s="52">
         <v>5.0356487511441125E-6</v>
       </c>
       <c r="F18" s="11">
@@ -8261,476 +10863,1542 @@
         <v>2.3408851005743578</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
+    <row r="19" spans="1:9">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" ht="21">
+      <c r="A20" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="26" spans="1:9" ht="21">
+      <c r="A26" s="78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="str">
+        <f>A18</f>
+        <v>Advertising (in millions)</v>
+      </c>
+      <c r="B28" s="81" t="str">
+        <f>IF(B18&gt;0, "Positive", "Negative")</f>
+        <v>Positive</v>
+      </c>
+      <c r="C28" s="81" t="str">
+        <f>IF(E18&lt;0.05,"YES","NO")</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="21">
+      <c r="A30" s="78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17" thickBot="1">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="44" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="17" thickBot="1"/>
-    <row r="26" spans="1:9">
-      <c r="A26" s="57" t="s">
+      <c r="C32" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="D32" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="E32" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="G32" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="E26" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="F26" s="58" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="10">
+      <c r="H32" s="45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="10">
         <v>1</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B33" s="10">
         <v>143.39305061961221</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C33" s="10">
         <v>18.206949380387783</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D33" s="10">
         <v>0.94123095253265654</v>
       </c>
-      <c r="E27">
+      <c r="E33">
+        <f>C33^2</f>
+        <v>331.49300574000307</v>
+      </c>
+      <c r="F33">
         <f>Regression!B6</f>
         <v>161.6</v>
       </c>
-      <c r="F27">
-        <f>E27-AVERAGE($E$27:$E$46)</f>
+      <c r="G33">
+        <f>F33-AVERAGE($F$33:$F$52)</f>
         <v>-13.54000000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="10">
+      <c r="H33">
+        <f>G33^2</f>
+        <v>183.33160000000055</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="10">
         <v>2</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B34" s="10">
         <v>193.96965052064633</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C34" s="10">
         <v>17.93034947935368</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D34" s="10">
         <v>0.92693177572485996</v>
       </c>
-      <c r="E28">
+      <c r="E34">
+        <f t="shared" ref="E34:E52" si="0">C34^2</f>
+        <v>321.49743245175875</v>
+      </c>
+      <c r="F34">
         <f>Regression!B7</f>
         <v>211.9</v>
       </c>
-      <c r="F28">
-        <f t="shared" ref="F28:F46" si="0">E28-AVERAGE($E$27:$E$46)</f>
+      <c r="G34">
+        <f>F34-AVERAGE($F$33:$F$52)</f>
         <v>36.759999999999991</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="10">
+      <c r="H34">
+        <f t="shared" ref="H34:H52" si="1">G34^2</f>
+        <v>1351.2975999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="10">
         <v>3</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B35" s="10">
         <v>136.87272240937438</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C35" s="10">
         <v>29.927277590625636</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D35" s="10">
         <v>1.5471279347695888</v>
       </c>
-      <c r="E29">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>895.64194398636334</v>
+      </c>
+      <c r="F35">
         <f>Regression!B8</f>
         <v>166.8</v>
       </c>
-      <c r="F29">
+      <c r="G35">
+        <f>F35-AVERAGE($F$33:$F$52)</f>
+        <v>-8.3400000000000034</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>69.555600000000055</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="10">
+        <v>4</v>
+      </c>
+      <c r="B36" s="10">
+        <v>166.65476207235264</v>
+      </c>
+      <c r="C36" s="10">
+        <v>32.545237927647349</v>
+      </c>
+      <c r="D36" s="10">
+        <v>1.6824666590240733</v>
+      </c>
+      <c r="E36">
         <f t="shared" si="0"/>
-        <v>-8.3400000000000034</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="10">
-        <v>4</v>
-      </c>
-      <c r="B30" s="10">
-        <v>166.65476207235264</v>
-      </c>
-      <c r="C30" s="10">
-        <v>32.545237927647349</v>
-      </c>
-      <c r="D30" s="10">
-        <v>1.6824666590240733</v>
-      </c>
-      <c r="E30">
+        <v>1059.1925117671756</v>
+      </c>
+      <c r="F36">
         <f>Regression!B9</f>
         <v>199.2</v>
       </c>
-      <c r="F30">
+      <c r="G36">
+        <f>F36-AVERAGE($F$33:$F$52)</f>
+        <v>24.059999999999974</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>578.88359999999875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="10">
+        <v>5</v>
+      </c>
+      <c r="B37" s="10">
+        <v>179.69541849282837</v>
+      </c>
+      <c r="C37" s="10">
+        <v>6.8045815071716333</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0.35177132641892617</v>
+      </c>
+      <c r="E37">
         <f t="shared" si="0"/>
-        <v>24.059999999999974</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="10">
-        <v>5</v>
-      </c>
-      <c r="B31" s="10">
-        <v>179.69541849282837</v>
-      </c>
-      <c r="C31" s="10">
-        <v>6.8045815071716333</v>
-      </c>
-      <c r="D31" s="10">
-        <v>0.35177132641892617</v>
-      </c>
-      <c r="E31">
+        <v>46.302329487742178</v>
+      </c>
+      <c r="F37">
         <f>Regression!B10</f>
         <v>186.5</v>
       </c>
-      <c r="F31">
+      <c r="G37">
+        <f>F37-AVERAGE($F$33:$F$52)</f>
+        <v>11.359999999999985</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>129.04959999999966</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="10">
+        <v>6</v>
+      </c>
+      <c r="B38" s="10">
+        <v>170.7079390679059</v>
+      </c>
+      <c r="C38" s="10">
+        <v>16.392060932094097</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0.84740803100753515</v>
+      </c>
+      <c r="E38">
         <f t="shared" si="0"/>
-        <v>11.359999999999985</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="10">
-        <v>6</v>
-      </c>
-      <c r="B32" s="10">
-        <v>170.7079390679059</v>
-      </c>
-      <c r="C32" s="10">
-        <v>16.392060932094097</v>
-      </c>
-      <c r="D32" s="10">
-        <v>0.84740803100753515</v>
-      </c>
-      <c r="E32">
+        <v>268.69966160148562</v>
+      </c>
+      <c r="F38">
         <f>Regression!B11</f>
         <v>187.1</v>
       </c>
-      <c r="F32">
+      <c r="G38">
+        <f>F38-AVERAGE($F$33:$F$52)</f>
+        <v>11.95999999999998</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>143.04159999999951</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="10">
+        <v>7</v>
+      </c>
+      <c r="B39" s="10">
+        <v>224.63281561744054</v>
+      </c>
+      <c r="C39" s="10">
+        <v>8.8671843825594578</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0.45840015415593882</v>
+      </c>
+      <c r="E39">
         <f t="shared" si="0"/>
-        <v>11.95999999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="10">
-        <v>7</v>
-      </c>
-      <c r="B33" s="10">
-        <v>224.63281561744054</v>
-      </c>
-      <c r="C33" s="10">
-        <v>8.8671843825594578</v>
-      </c>
-      <c r="D33" s="10">
-        <v>0.45840015415593882</v>
-      </c>
-      <c r="E33">
+        <v>78.626958874306354</v>
+      </c>
+      <c r="F39">
         <f>Regression!B12</f>
         <v>233.5</v>
       </c>
-      <c r="F33">
+      <c r="G39">
+        <f>F39-AVERAGE($F$33:$F$52)</f>
+        <v>58.359999999999985</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>3405.8895999999982</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="10">
+        <v>8</v>
+      </c>
+      <c r="B40" s="10">
+        <v>212.47328463078077</v>
+      </c>
+      <c r="C40" s="10">
+        <v>7.226715369219221</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0.37359406282414365</v>
+      </c>
+      <c r="E40">
         <f t="shared" si="0"/>
-        <v>58.359999999999985</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="10">
-        <v>8</v>
-      </c>
-      <c r="B34" s="10">
-        <v>212.47328463078077</v>
-      </c>
-      <c r="C34" s="10">
-        <v>7.226715369219221</v>
-      </c>
-      <c r="D34" s="10">
-        <v>0.37359406282414365</v>
-      </c>
-      <c r="E34">
+        <v>52.225415027709303</v>
+      </c>
+      <c r="F40">
         <f>Regression!B13</f>
         <v>219.7</v>
       </c>
-      <c r="F34">
+      <c r="G40">
+        <f>F40-AVERAGE($F$33:$F$52)</f>
+        <v>44.559999999999974</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>1985.5935999999977</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="10">
+        <v>9</v>
+      </c>
+      <c r="B41" s="10">
+        <v>210.35858358962255</v>
+      </c>
+      <c r="C41" s="10">
+        <v>1.341416410377434</v>
+      </c>
+      <c r="D41" s="10">
+        <v>6.9346194098969804E-2</v>
+      </c>
+      <c r="E41">
         <f t="shared" si="0"/>
-        <v>44.559999999999974</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="10">
-        <v>9</v>
-      </c>
-      <c r="B35" s="10">
-        <v>210.35858358962255</v>
-      </c>
-      <c r="C35" s="10">
-        <v>1.341416410377434</v>
-      </c>
-      <c r="D35" s="10">
-        <v>6.9346194098969804E-2</v>
-      </c>
-      <c r="E35">
+        <v>1.7993979860298803</v>
+      </c>
+      <c r="F41">
         <f>Regression!B14</f>
         <v>211.7</v>
       </c>
-      <c r="F35">
+      <c r="G41">
+        <f>F41-AVERAGE($F$33:$F$52)</f>
+        <v>36.559999999999974</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>1336.6335999999981</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="10">
+        <v>10</v>
+      </c>
+      <c r="B42" s="10">
+        <v>181.10521918693382</v>
+      </c>
+      <c r="C42" s="10">
+        <v>16.194780813066188</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0.83720938924339572</v>
+      </c>
+      <c r="E42">
         <f t="shared" si="0"/>
-        <v>36.559999999999974</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="10">
-        <v>10</v>
-      </c>
-      <c r="B36" s="10">
-        <v>181.10521918693382</v>
-      </c>
-      <c r="C36" s="10">
-        <v>16.194780813066188</v>
-      </c>
-      <c r="D36" s="10">
-        <v>0.83720938924339572</v>
-      </c>
-      <c r="E36">
+        <v>262.27092558325677</v>
+      </c>
+      <c r="F42">
         <f>Regression!B15</f>
         <v>197.3</v>
       </c>
-      <c r="F36">
+      <c r="G42">
+        <f>F42-AVERAGE($F$33:$F$52)</f>
+        <v>22.159999999999997</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>491.06559999999985</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="10">
+        <v>11</v>
+      </c>
+      <c r="B43" s="10">
+        <v>195.73190138827817</v>
+      </c>
+      <c r="C43" s="82">
+        <v>-30.431901388278163</v>
+      </c>
+      <c r="D43" s="10">
+        <v>-1.5732150912619751</v>
+      </c>
+      <c r="E43">
         <f t="shared" si="0"/>
-        <v>22.159999999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="10">
-        <v>11</v>
-      </c>
-      <c r="B37" s="10">
-        <v>195.73190138827817</v>
-      </c>
-      <c r="C37" s="63">
-        <v>-30.431901388278163</v>
-      </c>
-      <c r="D37" s="10">
-        <v>-1.5732150912619751</v>
-      </c>
-      <c r="E37">
+        <v>926.10062210588637</v>
+      </c>
+      <c r="F43">
         <f>Regression!B16</f>
         <v>165.3</v>
       </c>
-      <c r="F37">
+      <c r="G43">
+        <f>F43-AVERAGE($F$33:$F$52)</f>
+        <v>-9.8400000000000034</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>96.825600000000065</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="10">
+        <v>12</v>
+      </c>
+      <c r="B44" s="10">
+        <v>170.88416415466912</v>
+      </c>
+      <c r="C44" s="82">
+        <v>-1.8841641546691221</v>
+      </c>
+      <c r="D44" s="10">
+        <v>-9.7404215553947668E-2</v>
+      </c>
+      <c r="E44">
         <f t="shared" si="0"/>
-        <v>-9.8400000000000034</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="10">
-        <v>12</v>
-      </c>
-      <c r="B38" s="10">
-        <v>170.88416415466912</v>
-      </c>
-      <c r="C38" s="63">
-        <v>-1.8841641546691221</v>
-      </c>
-      <c r="D38" s="10">
-        <v>-9.7404215553947668E-2</v>
-      </c>
-      <c r="E38">
+        <v>3.5500745617400074</v>
+      </c>
+      <c r="F44">
         <f>Regression!B17</f>
         <v>169</v>
       </c>
-      <c r="F38">
+      <c r="G44">
+        <f>F44-AVERAGE($F$33:$F$52)</f>
+        <v>-6.1400000000000148</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>37.699600000000181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="10">
+        <v>13</v>
+      </c>
+      <c r="B45" s="10">
+        <v>190.09269861185629</v>
+      </c>
+      <c r="C45" s="82">
+        <v>-31.992698611856298</v>
+      </c>
+      <c r="D45" s="10">
+        <v>-1.6539024500702131</v>
+      </c>
+      <c r="E45">
         <f t="shared" si="0"/>
-        <v>-6.1400000000000148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="10">
-        <v>13</v>
-      </c>
-      <c r="B39" s="10">
-        <v>190.09269861185629</v>
-      </c>
-      <c r="C39" s="63">
-        <v>-31.992698611856298</v>
-      </c>
-      <c r="D39" s="10">
-        <v>-1.6539024500702131</v>
-      </c>
-      <c r="E39">
+        <v>1023.5327644690719</v>
+      </c>
+      <c r="F45">
         <f>Regression!B18</f>
         <v>158.1</v>
       </c>
-      <c r="F39">
+      <c r="G45">
+        <f>F45-AVERAGE($F$33:$F$52)</f>
+        <v>-17.04000000000002</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>290.36160000000069</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="10">
+        <v>14</v>
+      </c>
+      <c r="B46" s="10">
+        <v>156.96238230037747</v>
+      </c>
+      <c r="C46" s="82">
+        <v>-4.5623823003774646</v>
+      </c>
+      <c r="D46" s="10">
+        <v>-0.23585804237079458</v>
+      </c>
+      <c r="E46">
         <f t="shared" si="0"/>
-        <v>-17.04000000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="10">
-        <v>14</v>
-      </c>
-      <c r="B40" s="10">
-        <v>156.96238230037747</v>
-      </c>
-      <c r="C40" s="63">
-        <v>-4.5623823003774646</v>
-      </c>
-      <c r="D40" s="10">
-        <v>-0.23585804237079458</v>
-      </c>
-      <c r="E40">
+        <v>20.815332254797564</v>
+      </c>
+      <c r="F46">
         <f>Regression!B19</f>
         <v>152.4</v>
       </c>
-      <c r="F40">
+      <c r="G46">
+        <f>F46-AVERAGE($F$33:$F$52)</f>
+        <v>-22.740000000000009</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>517.10760000000039</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="10">
+        <v>15</v>
+      </c>
+      <c r="B47" s="10">
+        <v>185.51084635601347</v>
+      </c>
+      <c r="C47" s="82">
+        <v>-12.610846356013468</v>
+      </c>
+      <c r="D47" s="10">
+        <v>-0.65193342827104228</v>
+      </c>
+      <c r="E47">
         <f t="shared" si="0"/>
-        <v>-22.740000000000009</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="10">
-        <v>15</v>
-      </c>
-      <c r="B41" s="10">
-        <v>185.51084635601347</v>
-      </c>
-      <c r="C41" s="63">
-        <v>-12.610846356013468</v>
-      </c>
-      <c r="D41" s="10">
-        <v>-0.65193342827104228</v>
-      </c>
-      <c r="E41">
+        <v>159.03344581497817</v>
+      </c>
+      <c r="F47">
         <f>Regression!B20</f>
         <v>172.9</v>
       </c>
-      <c r="F41">
+      <c r="G47">
+        <f>F47-AVERAGE($F$33:$F$52)</f>
+        <v>-2.2400000000000091</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>5.0176000000000407</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="10">
+        <v>16</v>
+      </c>
+      <c r="B48" s="10">
+        <v>130.35239419913651</v>
+      </c>
+      <c r="C48" s="82">
+        <v>-5.5523941991365149</v>
+      </c>
+      <c r="D48" s="10">
+        <v>-0.28703794203544658</v>
+      </c>
+      <c r="E48">
         <f t="shared" si="0"/>
-        <v>-2.2400000000000091</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="10">
-        <v>16</v>
-      </c>
-      <c r="B42" s="10">
-        <v>130.35239419913651</v>
-      </c>
-      <c r="C42" s="63">
-        <v>-5.5523941991365149</v>
-      </c>
-      <c r="D42" s="10">
-        <v>-0.28703794203544658</v>
-      </c>
-      <c r="E42">
+        <v>30.82908134260482</v>
+      </c>
+      <c r="F48">
         <f>Regression!B21</f>
         <v>124.8</v>
       </c>
-      <c r="F42">
+      <c r="G48">
+        <f>F48-AVERAGE($F$33:$F$52)</f>
+        <v>-50.340000000000018</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>2534.1156000000019</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="10">
+        <v>17</v>
+      </c>
+      <c r="B49" s="10">
+        <v>181.45766936046022</v>
+      </c>
+      <c r="C49" s="82">
+        <v>-0.65766936046020419</v>
+      </c>
+      <c r="D49" s="10">
+        <v>-3.3999037711627711E-2</v>
+      </c>
+      <c r="E49">
         <f t="shared" si="0"/>
-        <v>-50.340000000000018</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="10">
-        <v>17</v>
-      </c>
-      <c r="B43" s="10">
-        <v>181.45766936046022</v>
-      </c>
-      <c r="C43" s="63">
-        <v>-0.65766936046020419</v>
-      </c>
-      <c r="D43" s="10">
-        <v>-3.3999037711627711E-2</v>
-      </c>
-      <c r="E43">
+        <v>0.43252898768813397</v>
+      </c>
+      <c r="F49">
         <f>Regression!B22</f>
         <v>180.8</v>
       </c>
-      <c r="F43">
+      <c r="G49">
+        <f>F49-AVERAGE($F$33:$F$52)</f>
+        <v>5.6599999999999966</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>32.03559999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="10">
+        <v>18</v>
+      </c>
+      <c r="B50" s="10">
+        <v>180.92899410017066</v>
+      </c>
+      <c r="C50" s="82">
+        <v>-15.828994100170661</v>
+      </c>
+      <c r="D50" s="10">
+        <v>-0.81829958897925537</v>
+      </c>
+      <c r="E50">
         <f t="shared" si="0"/>
-        <v>5.6599999999999966</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="10">
-        <v>18</v>
-      </c>
-      <c r="B44" s="10">
-        <v>180.92899410017066</v>
-      </c>
-      <c r="C44" s="63">
-        <v>-15.828994100170661</v>
-      </c>
-      <c r="D44" s="10">
-        <v>-0.81829958897925537</v>
-      </c>
-      <c r="E44">
+        <v>250.5570542232376</v>
+      </c>
+      <c r="F50">
         <f>Regression!B23</f>
         <v>165.1</v>
       </c>
-      <c r="F44">
+      <c r="G50">
+        <f>F50-AVERAGE($F$33:$F$52)</f>
+        <v>-10.04000000000002</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>100.80160000000041</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="10">
+        <v>19</v>
+      </c>
+      <c r="B51" s="10">
+        <v>185.33462126925028</v>
+      </c>
+      <c r="C51" s="82">
+        <v>-22.134621269250289</v>
+      </c>
+      <c r="D51" s="10">
+        <v>-1.1442768486876695</v>
+      </c>
+      <c r="E51">
         <f t="shared" si="0"/>
-        <v>-10.04000000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="10">
-        <v>19</v>
-      </c>
-      <c r="B45" s="10">
-        <v>185.33462126925028</v>
-      </c>
-      <c r="C45" s="63">
-        <v>-22.134621269250289</v>
-      </c>
-      <c r="D45" s="10">
-        <v>-1.1442768486876695</v>
-      </c>
-      <c r="E45">
+        <v>489.94145873314727</v>
+      </c>
+      <c r="F51">
         <f>Regression!B24</f>
         <v>163.19999999999999</v>
       </c>
-      <c r="F45">
+      <c r="G51">
+        <f>F51-AVERAGE($F$33:$F$52)</f>
+        <v>-11.940000000000026</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>142.56360000000063</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17" thickBot="1">
+      <c r="A52" s="11">
+        <v>20</v>
+      </c>
+      <c r="B52" s="11">
+        <v>105.6808820522906</v>
+      </c>
+      <c r="C52" s="83">
+        <v>-29.780882052290593</v>
+      </c>
+      <c r="D52" s="11">
+        <v>-1.5395598348581312</v>
+      </c>
+      <c r="E52">
         <f t="shared" si="0"/>
-        <v>-11.940000000000026</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="17" thickBot="1">
-      <c r="A46" s="11">
-        <v>20</v>
-      </c>
-      <c r="B46" s="11">
-        <v>105.6808820522906</v>
-      </c>
-      <c r="C46" s="64">
-        <v>-29.780882052290593</v>
-      </c>
-      <c r="D46" s="11">
-        <v>-1.5395598348581312</v>
-      </c>
-      <c r="E46">
+        <v>886.900935812444</v>
+      </c>
+      <c r="F52">
         <f>Regression!B25</f>
         <v>75.900000000000006</v>
       </c>
-      <c r="F46">
-        <f t="shared" si="0"/>
+      <c r="G52">
+        <f>F52-AVERAGE($F$33:$F$52)</f>
         <v>-99.240000000000009</v>
       </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>9848.5776000000023</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I7:I8"/>
+  <mergeCells count="3">
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CDE872-99FE-B84F-B95A-9D5428FDC931}">
+  <dimension ref="A1:I54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" thickBot="1"/>
+    <row r="3" spans="1:9">
+      <c r="A3" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="43"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="75">
+        <v>0.95652924736783607</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="72">
+        <v>0.91494820107007901</v>
+      </c>
+      <c r="C5" s="61">
+        <f>'Regr. Results - One Variable'!B5</f>
+        <v>0.6946043187617067</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="72">
+        <v>0.90494210707832368</v>
+      </c>
+      <c r="C6" s="61">
+        <f>'Regr. Results - One Variable'!B6</f>
+        <v>0.67763789202624602</v>
+      </c>
+      <c r="D6" s="65"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="67"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="72">
+        <v>10.792042085819126</v>
+      </c>
+      <c r="C7" s="61">
+        <f>'Regr. Results - One Variable'!B7</f>
+        <v>19.873828240526986</v>
+      </c>
+      <c r="D7" s="68"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="70"/>
+    </row>
+    <row r="8" spans="1:9" ht="17" thickBot="1">
+      <c r="A8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickBot="1">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="10">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10">
+        <v>21299.489069504445</v>
+      </c>
+      <c r="D12" s="10">
+        <v>10649.744534752223</v>
+      </c>
+      <c r="E12" s="10">
+        <v>91.439097196564106</v>
+      </c>
+      <c r="F12" s="10">
+        <v>7.9856410009589096E-10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="10">
+        <v>17</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1979.9589304955509</v>
+      </c>
+      <c r="D13" s="10">
+        <v>116.46817238209123</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" ht="17" thickBot="1">
+      <c r="A14" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="11">
+        <v>19</v>
+      </c>
+      <c r="C14" s="11">
+        <v>23279.447999999997</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" thickBot="1"/>
+    <row r="16" spans="1:9">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="72">
+        <v>121.72883991395686</v>
+      </c>
+      <c r="C17" s="10">
+        <v>8.4266844417601714</v>
+      </c>
+      <c r="D17" s="10">
+        <v>14.445638822156969</v>
+      </c>
+      <c r="E17" s="97">
+        <v>5.6192263419075337E-11</v>
+      </c>
+      <c r="F17" s="10">
+        <v>103.95008980924561</v>
+      </c>
+      <c r="G17" s="10">
+        <v>139.50759001866811</v>
+      </c>
+      <c r="H17" s="10">
+        <v>103.95008980924561</v>
+      </c>
+      <c r="I17" s="10">
+        <v>139.50759001866811</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="72">
+        <v>1.516023201720863</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.15409372919466099</v>
+      </c>
+      <c r="D18" s="10">
+        <v>9.8383185976745757</v>
+      </c>
+      <c r="E18" s="97">
+        <v>1.9650914092798555E-8</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1.1909138514195385</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1.8411325520221875</v>
+      </c>
+      <c r="H18" s="10">
+        <v>1.1909138514195385</v>
+      </c>
+      <c r="I18" s="10">
+        <v>1.8411325520221875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17" thickBot="1">
+      <c r="A19" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="96">
+        <v>-33.000499722628881</v>
+      </c>
+      <c r="C19" s="11">
+        <v>4.9726433195855924</v>
+      </c>
+      <c r="D19" s="11">
+        <v>-6.636409973876642</v>
+      </c>
+      <c r="E19" s="98">
+        <v>4.2046866612820725E-6</v>
+      </c>
+      <c r="F19" s="11">
+        <v>-43.491860061299342</v>
+      </c>
+      <c r="G19" s="11">
+        <v>-22.50913938395842</v>
+      </c>
+      <c r="H19" s="11">
+        <v>-43.491860061299342</v>
+      </c>
+      <c r="I19" s="11">
+        <v>-22.50913938395842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" ht="21">
+      <c r="A21" s="79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="21">
+      <c r="A25" s="78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="str">
+        <f>A18</f>
+        <v>Advertising (in millions)</v>
+      </c>
+      <c r="B27" s="81" t="str">
+        <f>IF(B18&gt;0, "Positive", "Negative")</f>
+        <v>Positive</v>
+      </c>
+      <c r="C27" s="81" t="str">
+        <f>IF(E18&lt;0.05,"YES","NO")</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="str">
+        <f>A19</f>
+        <v>Advertising Method</v>
+      </c>
+      <c r="B28" s="81" t="str">
+        <f>IF(B19&gt;0, "Positive", "Negative")</f>
+        <v>Negative</v>
+      </c>
+      <c r="C28" s="81" t="str">
+        <f>IF(E19&lt;0.05,"YES","NO")</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="21">
+      <c r="A30" s="78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17" thickBot="1">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="10">
+        <v>1</v>
+      </c>
+      <c r="B33" s="10">
+        <v>164.32909188231312</v>
+      </c>
+      <c r="C33" s="10">
+        <v>-2.7290918823131278</v>
+      </c>
+      <c r="D33" s="10">
+        <v>-0.26734179957574467</v>
+      </c>
+      <c r="E33" s="1">
+        <v>161.6</v>
+      </c>
+      <c r="F33" s="1">
+        <v>28.1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="10">
+        <v>2</v>
+      </c>
+      <c r="B34" s="10">
+        <v>207.83895777170187</v>
+      </c>
+      <c r="C34" s="10">
+        <v>4.0610422282981347</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.39781963535288078</v>
+      </c>
+      <c r="E34" s="1">
+        <v>211.9</v>
+      </c>
+      <c r="F34" s="1">
+        <v>56.8</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="10">
+        <v>3</v>
+      </c>
+      <c r="B35" s="10">
+        <v>158.71980603594591</v>
+      </c>
+      <c r="C35" s="10">
+        <v>8.0801939640541036</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0.79153567868897512</v>
+      </c>
+      <c r="E35" s="1">
+        <v>166.8</v>
+      </c>
+      <c r="F35" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="10">
+        <v>4</v>
+      </c>
+      <c r="B36" s="10">
+        <v>184.34059814502851</v>
+      </c>
+      <c r="C36" s="10">
+        <v>14.85940185497148</v>
+      </c>
+      <c r="D36" s="10">
+        <v>1.455626781301399</v>
+      </c>
+      <c r="E36" s="1">
+        <v>199.2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>41.3</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="10">
+        <v>5</v>
+      </c>
+      <c r="B37" s="10">
+        <v>195.55916983776291</v>
+      </c>
+      <c r="C37" s="10">
+        <v>-9.0591698377629086</v>
+      </c>
+      <c r="D37" s="10">
+        <v>-0.88743614049267183</v>
+      </c>
+      <c r="E37" s="1">
+        <v>186.5</v>
+      </c>
+      <c r="F37" s="1">
+        <v>48.7</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="10">
+        <v>6</v>
+      </c>
+      <c r="B38" s="10">
+        <v>187.82745150898648</v>
+      </c>
+      <c r="C38" s="10">
+        <v>-0.72745150898649058</v>
+      </c>
+      <c r="D38" s="10">
+        <v>-7.1261138834103038E-2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>187.1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>43.6</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="10">
+        <v>7</v>
+      </c>
+      <c r="B39" s="10">
+        <v>234.21776148164491</v>
+      </c>
+      <c r="C39" s="10">
+        <v>-0.7177614816449136</v>
+      </c>
+      <c r="D39" s="10">
+        <v>-7.0311903902064168E-2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>233.5</v>
+      </c>
+      <c r="F39" s="1">
+        <v>74.2</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="10">
+        <v>8</v>
+      </c>
+      <c r="B40" s="10">
+        <v>223.75720138977096</v>
+      </c>
+      <c r="C40" s="10">
+        <v>-4.0572013897709667</v>
+      </c>
+      <c r="D40" s="10">
+        <v>-0.39744338686876501</v>
+      </c>
+      <c r="E40" s="1">
+        <v>219.7</v>
+      </c>
+      <c r="F40" s="1">
+        <v>67.3</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="10">
+        <v>9</v>
+      </c>
+      <c r="B41" s="10">
+        <v>221.93797354770589</v>
+      </c>
+      <c r="C41" s="10">
+        <v>-10.237973547705906</v>
+      </c>
+      <c r="D41" s="10">
+        <v>-1.0029117341160039</v>
+      </c>
+      <c r="E41" s="1">
+        <v>211.7</v>
+      </c>
+      <c r="F41" s="1">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="10">
+        <v>10</v>
+      </c>
+      <c r="B42" s="10">
+        <v>196.77198839913959</v>
+      </c>
+      <c r="C42" s="10">
+        <v>0.52801160086042387</v>
+      </c>
+      <c r="D42" s="10">
+        <v>5.1724008446081084E-2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>197.3</v>
+      </c>
+      <c r="F42" s="1">
+        <v>49.5</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="10">
+        <v>11</v>
+      </c>
+      <c r="B43" s="10">
+        <v>176.35448125079387</v>
+      </c>
+      <c r="C43" s="10">
+        <v>-11.054481250793856</v>
+      </c>
+      <c r="D43" s="10">
+        <v>-1.0828968163793298</v>
+      </c>
+      <c r="E43" s="1">
+        <v>165.3</v>
+      </c>
+      <c r="F43" s="1">
+        <v>57.8</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="10">
+        <v>12</v>
+      </c>
+      <c r="B44" s="10">
+        <v>154.97855410652969</v>
+      </c>
+      <c r="C44" s="10">
+        <v>14.021445893470315</v>
+      </c>
+      <c r="D44" s="10">
+        <v>1.373540627967833</v>
+      </c>
+      <c r="E44" s="1">
+        <v>169</v>
+      </c>
+      <c r="F44" s="1">
+        <v>43.7</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="10">
+        <v>13</v>
+      </c>
+      <c r="B45" s="10">
+        <v>171.50320700528709</v>
+      </c>
+      <c r="C45" s="10">
+        <v>-13.403207005287101</v>
+      </c>
+      <c r="D45" s="10">
+        <v>-1.3129779558182539</v>
+      </c>
+      <c r="E45" s="1">
+        <v>158.1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>54.6</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="10">
+        <v>14</v>
+      </c>
+      <c r="B46" s="10">
+        <v>143.00197081293487</v>
+      </c>
+      <c r="C46" s="10">
+        <v>9.3980291870651342</v>
+      </c>
+      <c r="D46" s="10">
+        <v>0.92063079723275176</v>
+      </c>
+      <c r="E46" s="1">
+        <v>152.4</v>
+      </c>
+      <c r="F46" s="1">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="10">
+        <v>15</v>
+      </c>
+      <c r="B47" s="10">
+        <v>167.56154668081285</v>
+      </c>
+      <c r="C47" s="10">
+        <v>5.3384533191871526</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0.52295480652448367</v>
+      </c>
+      <c r="E47" s="1">
+        <v>172.9</v>
+      </c>
+      <c r="F47" s="1">
+        <v>52</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="10">
+        <v>16</v>
+      </c>
+      <c r="B48" s="10">
+        <v>120.11002046694983</v>
+      </c>
+      <c r="C48" s="10">
+        <v>4.6899795330501632</v>
+      </c>
+      <c r="D48" s="10">
+        <v>0.45943032422797003</v>
+      </c>
+      <c r="E48" s="1">
+        <v>124.8</v>
+      </c>
+      <c r="F48" s="1">
+        <v>20.7</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="10">
+        <v>17</v>
+      </c>
+      <c r="B49" s="10">
+        <v>164.07469331685488</v>
+      </c>
+      <c r="C49" s="10">
+        <v>16.725306683145135</v>
+      </c>
+      <c r="D49" s="10">
+        <v>1.6384107900897775</v>
+      </c>
+      <c r="E49" s="1">
+        <v>180.8</v>
+      </c>
+      <c r="F49" s="1">
+        <v>49.7</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="10">
+        <v>18</v>
+      </c>
+      <c r="B50" s="10">
+        <v>163.61988635633861</v>
+      </c>
+      <c r="C50" s="10">
+        <v>1.4801136436613831</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0.14499191017990273</v>
+      </c>
+      <c r="E50" s="1">
+        <v>165.1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>49.4</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="10">
+        <v>19</v>
+      </c>
+      <c r="B51" s="10">
+        <v>167.40994436064076</v>
+      </c>
+      <c r="C51" s="10">
+        <v>-4.209944360640776</v>
+      </c>
+      <c r="D51" s="10">
+        <v>-0.41240608598839662</v>
+      </c>
+      <c r="E51" s="1">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="F51" s="1">
+        <v>51.9</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17" thickBot="1">
+      <c r="A52" s="11">
+        <v>20</v>
+      </c>
+      <c r="B52" s="11">
+        <v>98.885695642857769</v>
+      </c>
+      <c r="C52" s="11">
+        <v>-22.985695642857763</v>
+      </c>
+      <c r="D52" s="11">
+        <v>-2.2516783980367596</v>
+      </c>
+      <c r="E52" s="1">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="F52" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="C54" s="95"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D5:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/presentations/Q3-DA-Review/DA Review - Data Science Club.xlsx
+++ b/presentations/Q3-DA-Review/DA Review - Data Science Club.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steven.mortimer/darden/club-resources/presentations/Q3-DA-Review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88984EE1-F842-3441-97EB-168162B96CFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92890B5-70F2-CB43-9E59-C7573E25123A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15540" activeTab="3" xr2:uid="{9999229E-6884-134F-B654-285C0C0826DB}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15540" xr2:uid="{9999229E-6884-134F-B654-285C0C0826DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hypothesis Testing" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Regression" sheetId="3" r:id="rId3"/>
     <sheet name="Regr. Results - One Variable" sheetId="9" r:id="rId4"/>
     <sheet name="Regr. Results - Two Variable" sheetId="10" r:id="rId5"/>
+    <sheet name="Regr. Results - 2 Var w Transfo" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0" concurrentManualCount="4"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="148">
   <si>
     <t>T</t>
   </si>
@@ -1301,9 +1302,6 @@
     <t>The coefficient for Method B is negative and statistcally significant, meaning that, even account for the advertising spend, sales are lower when Method B is employed.</t>
   </si>
   <si>
-    <t>Our regression formula indicates that estimated sales are $164.5 million when running Method B with an advertising budget of $50 million.</t>
-  </si>
-  <si>
     <r>
       <t>There is statistically significant evidence that advertising is positively related to sales (</t>
     </r>
@@ -1328,20 +1326,239 @@
     </r>
   </si>
   <si>
-    <t>By all of these measures, the two-variable model is better!</t>
-  </si>
-  <si>
     <t>t-distribution</t>
   </si>
   <si>
     <t>normal distribution</t>
+  </si>
+  <si>
+    <t>Log Advertising (in millions)</t>
+  </si>
+  <si>
+    <t>Two Variable Regression…</t>
+  </si>
+  <si>
+    <r>
+      <t>In this case, we've explained 3% more variance (R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 94.6% vs. 91.5%), Adjusted R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is also higher, and the errors are $2 million less on average (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= 8.58 vs. 10.79) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>In this case, we've explained 22% more variance (R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 91.5% vs. 69.5%), Adjusted R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is also higher, and the errors are $9.1 million less on average (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= 10.79 vs. 19.87) </t>
+    </r>
+  </si>
+  <si>
+    <t>Do they have constant variance (homoskedasticity)?</t>
+  </si>
+  <si>
+    <t>Are the residuals randomly distributed (no pattern)?</t>
+  </si>
+  <si>
+    <t>Yes, they appear equally above and below the horizontal axis in my residuals plot and their average is zero</t>
+  </si>
+  <si>
+    <t>Is the average of errors close to zero?</t>
+  </si>
+  <si>
+    <t>No, all of the errors are negative for Observations 11-20, which are Method B. We should try putting that in our model.</t>
+  </si>
+  <si>
+    <t>Yes, the largest error is ~15 and the smallest is ~ -15 with everything else distributed evenly throughout that range.</t>
+  </si>
+  <si>
+    <t>Yes, they appear equally above and below the horizontal axis in my residuals plot and their average is zero.</t>
+  </si>
+  <si>
+    <t>NOTE: The words "residuals" and "errors" mean the same thing (difference between data and your prediction)</t>
+  </si>
+  <si>
+    <t>Yes, the largest error is ~30 and the smallest is ~ -30 with everything else distributed evenly throughout that range.</t>
+  </si>
+  <si>
+    <t>No, the largest error is ~15 and the smallest is ~ -25 with maybe a smaller range at higher values of advertising.</t>
+  </si>
+  <si>
+    <t>No, it still seems like at higher values of advertising we have negative errors (i.e. predicted too low) (red circle on plot)</t>
+  </si>
+  <si>
+    <t>Yes, regardless of the advertising or advertising method, there doesn't appear to be a pattern in the errors.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BOTTOM LINE</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: We answered "Yes" to all three of these questions. We can say the linear regression assumptions are met.</t>
+    </r>
+  </si>
+  <si>
+    <t>Our regression formula indicates that estimated sales are $164.5 million when running Method B with an advertising budget of $50 million. (from sheet "Regr. Results - Two Variable")</t>
+  </si>
+  <si>
+    <t>F-Test Two-Sample for Variances</t>
+  </si>
+  <si>
+    <t>P(F&lt;=f) one-tail</t>
+  </si>
+  <si>
+    <t>F Critical one-tail</t>
+  </si>
+  <si>
+    <t>Same as above! (Cell B15)</t>
+  </si>
+  <si>
+    <t>Same as above! (Cell B36)</t>
+  </si>
+  <si>
+    <t>BELOW ARE THE RESULTS IF YOU USED EXCEL'S DATA ANALYSIS PLUG-IN</t>
+  </si>
+  <si>
+    <t>The null hypothesis for the F-Test is that the variances of the two samples are the same. If we get a signficant p-value, then we can reject the null and say the variances are not equal. Then we can use the t-Test assuming unequal variances!</t>
+  </si>
+  <si>
+    <t>Before you run your t-test you should always run an F-Test. The result will tell you which type of t-Test to choose. On the exam always report whether your F-Test was significant and give its p-value to justify your work</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="11">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -1350,9 +1567,11 @@
     <numFmt numFmtId="168" formatCode="0.00000000000000"/>
     <numFmt numFmtId="169" formatCode="0.000"/>
     <numFmt numFmtId="170" formatCode="0.000000"/>
-    <numFmt numFmtId="179" formatCode="0.000000000"/>
+    <numFmt numFmtId="171" formatCode="0.000000000"/>
+    <numFmt numFmtId="172" formatCode="0.00000000"/>
+    <numFmt numFmtId="176" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1473,6 +1692,29 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1500,7 +1742,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1623,12 +1865,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1655,7 +1935,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1701,9 +1980,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1732,15 +2008,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1750,40 +2017,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1803,6 +2037,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1821,31 +2073,104 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2129,6 +2454,457 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Advertising Method Line Fit  Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Sales (in millions)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Regr. Results - 2 Var w Transfo'!$G$33:$G$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Regression!$B$6:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>161.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>211.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>166.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>199.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>186.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>187.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>233.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>219.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>211.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>197.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>165.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>158.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>152.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>172.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>124.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>180.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>165.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>163.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>75.900000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5387-0A4F-AB9A-1F8F78DA4C3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Predicted Sales (in millions)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Regr. Results - 2 Var w Transfo'!$G$33:$G$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Regr. Results - 2 Var w Transfo'!$B$33:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>172.64907173369062</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>206.3043643315325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>165.8973019332995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>191.06485371446212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>198.94665340310945</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>193.65653173510401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>219.08364188315181</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>214.41606093938219</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>213.55567807278192</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199.72584225348612</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>174.3596985567012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>160.98681798273762</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>171.63602116213642</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>151.45116945495661</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>169.30279463154474</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>125.25378662141324</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>167.13940091709773</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>166.84986426445519</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>169.21074136402271</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>71.3097050449351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5387-0A4F-AB9A-1F8F78DA4C3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1490322175"/>
+        <c:axId val="1490334047"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1490322175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Advertising Method</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1490334047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1490334047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sales (in millions)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1490322175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4080,6 +4856,863 @@
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1452350607"/>
         <c:crossesAt val="-1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Log Advertising (in millions)  Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Regression!$E$6:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Regr. Results - 2 Var w Transfo'!$C$33:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-11.049071733690624</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5956356684675086</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90269806670050912</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1351462855378713</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-12.446653403109451</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.5565317351040164</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.416358116848187</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2839390606177972</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.8556780727819273</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.4258422534861097</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9.0596985567011927</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0131820172623804</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-13.536021162136421</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9488305450433927</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5972053684552634</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.45378662141324355</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.66059908290228</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.7498642644551978</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6.0107413640227207</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.5902949550649055</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DE5C-4442-AAFD-57A24D9531E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1490583503"/>
+        <c:axId val="1490396591"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1490583503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Log Advertising (in millions)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1490396591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1490396591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1490583503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Advertising Method  Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14148940036341612"/>
+          <c:y val="0.25973801885875375"/>
+          <c:w val="0.83012598425196849"/>
+          <c:h val="0.57850247885680961"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Regr. Results - 2 Var w Transfo'!$G$33:$G$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Regr. Results - 2 Var w Transfo'!$C$33:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-11.049071733690624</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5956356684675086</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90269806670050912</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1351462855378713</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-12.446653403109451</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.5565317351040164</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.416358116848187</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2839390606177972</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.8556780727819273</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.4258422534861097</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9.0596985567011927</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0131820172623804</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-13.536021162136421</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9488305450433927</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5972053684552634</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.45378662141324355</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.66059908290228</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.7498642644551978</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6.0107413640227207</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.5902949550649055</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FB81-AD42-B3F4-D36693CCF703}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1491508351"/>
+        <c:axId val="1491510031"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1491508351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Advertising Method</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1491510031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1491510031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1491508351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Log Advertising (in millions) Line Fit  Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Sales (in millions)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Regression!$E$6:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Regression!$B$6:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>161.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>211.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>166.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>199.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>186.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>187.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>233.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>219.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>211.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>197.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>165.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>158.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>152.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>172.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>124.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>180.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>165.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>163.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>75.900000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A8DB-9140-A0A2-34104C41865C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Predicted Sales (in millions)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Regression!$E$6:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Regr. Results - 2 Var w Transfo'!$B$33:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>172.64907173369062</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>206.3043643315325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>165.8973019332995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>191.06485371446212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>198.94665340310945</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>193.65653173510401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>219.08364188315181</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>214.41606093938219</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>213.55567807278192</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199.72584225348612</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>174.3596985567012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>160.98681798273762</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>171.63602116213642</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>151.45116945495661</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>169.30279463154474</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>125.25378662141324</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>167.13940091709773</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>166.84986426445519</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>169.21074136402271</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>71.3097050449351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A8DB-9140-A0A2-34104C41865C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1491457919"/>
+        <c:axId val="1491445727"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1491457919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Log Advertising (in millions)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1491445727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1491445727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sales (in millions)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1491457919"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -6234,8 +7867,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
@@ -6255,7 +7888,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6642100" y="1905000"/>
+              <a:off x="8140700" y="1905000"/>
               <a:ext cx="6172200" cy="393700"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6360,7 +7993,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6642100" y="1905000"/>
+              <a:off x="8140700" y="1905000"/>
               <a:ext cx="6172200" cy="393700"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6421,16 +8054,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6499,8 +8132,8 @@
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2578100" cy="558801"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -6675,7 +8308,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -6945,8 +8578,8 @@
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3771900" cy="393700"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -7069,7 +8702,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -7145,8 +8778,8 @@
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2679700" cy="698501"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -7398,7 +9031,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -7603,8 +9236,8 @@
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2882900" cy="571500"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13">
@@ -7777,7 +9410,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13">
@@ -7914,16 +9547,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7950,16 +9583,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7986,16 +9619,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8022,16 +9655,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8134,7 +9767,7 @@
                     <a:rPr lang="en-US" sz="1800" b="0" i="1">
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                     </a:rPr>
-                    <m:t>=1.516∗</m:t>
+                    <m:t>=121.729+ 1.516∗</m:t>
                   </m:r>
                   <m:r>
                     <a:rPr lang="en-US" sz="1800" b="0" i="1">
@@ -8154,18 +9787,9 @@
                     </a:rPr>
                     <m:t>𝑀𝑒𝑡h𝑜𝑑</m:t>
                   </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1800" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t> +121.729 </m:t>
-                  </m:r>
                 </m:oMath>
               </a14:m>
-              <a:r>
-                <a:rPr lang="en-US" sz="1800"/>
-                <a:t> </a:t>
-              </a:r>
+              <a:endParaRPr lang="en-US" sz="1800"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -8225,12 +9849,406 @@
                 <a:rPr lang="en-US" sz="1800" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t> 𝑆𝑎𝑙𝑒𝑠=1.516∗𝐴𝑑𝑣𝑒𝑟𝑡𝑖𝑠𝑖𝑛𝑔−33.000∗𝑀𝑒𝑡ℎ𝑜𝑑 +121.729 </a:t>
+                <a:t> 𝑆𝑎𝑙𝑒𝑠=121.729+ 1.516∗𝐴𝑑𝑣𝑒𝑟𝑡𝑖𝑠𝑖𝑛𝑔−33.000∗𝑀𝑒𝑡ℎ𝑜𝑑</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Oval 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE3BBDD8-3F2B-DC40-AE25-7C60747B3024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2959100" y="13919200"/>
+          <a:ext cx="2095500" cy="1587500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{720634E4-BC74-6A42-8112-9A9C54516E5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D80D6D-8CC4-2A4C-936D-39BBE065A44D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BDBD2D4-6421-B44A-89B7-C988537965D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1058416-7B25-4746-ACC8-E6992B1F1319}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6997700" cy="393700"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{329A382C-0825-0D44-A60C-F8BBDAB48F0F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="4406900"/>
+              <a:ext cx="6997700" cy="393700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="91440" rIns="0" bIns="91440" rtlCol="0" anchor="ctr" anchorCtr="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" b="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1800" b="0" i="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑆𝑎𝑙𝑒𝑠</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=13.127+ 110.113∗</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝐿𝑜𝑔</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>(</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝐴𝑑𝑣𝑒𝑟𝑡𝑖𝑠𝑖𝑛𝑔</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>)−32.779∗</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑀𝑒𝑡h𝑜𝑑</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{329A382C-0825-0D44-A60C-F8BBDAB48F0F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="4406900"/>
+              <a:ext cx="6997700" cy="393700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="91440" rIns="0" bIns="91440" rtlCol="0" anchor="ctr" anchorCtr="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" b="0"/>
+                <a:t> </a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" sz="1800"/>
-                <a:t> </a:t>
+                <a:rPr lang="en-US" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> 𝑆𝑎𝑙𝑒𝑠=13.127+ 110.113∗𝐿𝑜𝑔(𝐴𝑑𝑣𝑒𝑟𝑡𝑖𝑠𝑖𝑛𝑔)−32.779∗𝑀𝑒𝑡ℎ𝑜𝑑</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="1800"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -8540,8 +10558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B05C52-EAA0-FC43-B64D-208018C5709E}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" customHeight="1"/>
@@ -8565,12 +10583,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
       <c r="E1" s="2"/>
       <c r="G1" s="4" t="s">
         <v>3</v>
@@ -8580,10 +10598,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="23" customHeight="1">
-      <c r="A2" s="87"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
       <c r="E2" s="2"/>
       <c r="G2" s="3" t="s">
         <v>8</v>
@@ -8604,10 +10622,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="23" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
       <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
@@ -8627,16 +10645,16 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="23" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="6"/>
@@ -8647,128 +10665,128 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:13" ht="23" customHeight="1">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="16"/>
       <c r="J5" s="7">
         <v>67.5</v>
       </c>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:13" ht="23" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <v>0.05</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="16"/>
       <c r="J6" s="7">
         <v>70.7</v>
       </c>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:13" ht="23" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="17"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="16"/>
       <c r="J7" s="7">
         <v>64.400000000000006</v>
       </c>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:13" ht="23" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
       <c r="J8" s="7">
         <v>58.6</v>
       </c>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:13" ht="23" customHeight="1">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="20"/>
       <c r="J9" s="7">
         <v>64.8</v>
       </c>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:13" ht="23" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="17"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="16"/>
       <c r="J10" s="7">
         <v>61.2</v>
       </c>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="23" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="17"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="16"/>
       <c r="J11" s="7">
         <v>67.8</v>
       </c>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="23" customHeight="1">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="24">
         <f>$M$2-$H$2</f>
         <v>0.99200000000000443</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="17"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="16"/>
       <c r="J12" s="7">
         <v>66.8</v>
       </c>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="23" customHeight="1">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="24">
         <f>$H$3/SQRT($M$3)</f>
         <v>0.8</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="17"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="16"/>
       <c r="J13" s="7">
         <v>68.5</v>
       </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="23" customHeight="1">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="22">
         <f>B12/B13</f>
         <v>1.2400000000000055</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>123</v>
+      <c r="D14" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="J14" s="7">
         <v>76</v>
@@ -8776,17 +10794,17 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:13" ht="23" customHeight="1">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="90">
+      <c r="B15" s="68">
         <f>(1-NORMSDIST(ABS(B14)))*2</f>
         <v>0.21497539414917166</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>19</v>
       </c>
       <c r="J15" s="7">
@@ -8795,15 +10813,15 @@
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:13" ht="23" customHeight="1">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="38" t="str">
+      <c r="B16" s="108" t="str">
         <f>IF(B15&lt;$B$6,"YES","NO")</f>
         <v>NO</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="32"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="31"/>
       <c r="J16" s="7">
         <v>67.3</v>
       </c>
@@ -8816,48 +10834,48 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:15" ht="23" customHeight="1">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="86"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="80"/>
       <c r="J18" s="7">
         <v>67.2</v>
       </c>
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:15" ht="23" customHeight="1">
-      <c r="A19" s="87"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="89"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="83"/>
       <c r="J19" s="7">
         <v>64.8</v>
       </c>
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:15" ht="23" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
       <c r="J20" s="7">
         <v>65.8</v>
       </c>
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:15" ht="23" customHeight="1">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="20" t="s">
         <v>49</v>
       </c>
       <c r="J21" s="7">
@@ -8866,338 +10884,338 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:15" ht="23" customHeight="1">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="16"/>
       <c r="J22" s="7">
         <v>58.5</v>
       </c>
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:15" ht="23" customHeight="1">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="21">
         <v>0.05</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="17"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="16"/>
       <c r="J23" s="7">
         <v>66.400000000000006</v>
       </c>
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:15" ht="23" customHeight="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="17"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="16"/>
       <c r="J24" s="7">
         <v>65.599999999999994</v>
       </c>
       <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:15" ht="23" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
       <c r="J25" s="7">
         <v>67.2</v>
       </c>
       <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:15" ht="23" customHeight="1">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="20"/>
       <c r="J26" s="7">
         <v>66.7</v>
       </c>
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:15" ht="23" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="17"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="16"/>
     </row>
     <row r="28" spans="1:15" ht="23" customHeight="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="17"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="16"/>
     </row>
     <row r="29" spans="1:15" ht="23" customHeight="1">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="24">
         <f>$M$2-$H$2</f>
         <v>0.99200000000000443</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="17"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="16"/>
     </row>
     <row r="30" spans="1:15" ht="23" customHeight="1">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="24">
         <f>$H$3/SQRT($M$3)</f>
         <v>0.8</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="17"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="16"/>
     </row>
     <row r="31" spans="1:15" ht="23" customHeight="1">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="22">
         <f>B29/B30</f>
         <v>1.2400000000000055</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>123</v>
+      <c r="D31" s="16" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="23" customHeight="1">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="90">
+      <c r="B32" s="68">
         <f>1-NORMSDIST(B31)</f>
         <v>0.10748769707458583</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="54" t="s">
+      <c r="F32" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="112"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="112"/>
+      <c r="L32" s="112"/>
+      <c r="M32" s="112"/>
+      <c r="N32" s="112"/>
+      <c r="O32" s="113"/>
     </row>
     <row r="33" spans="1:15" ht="23" customHeight="1">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="38" t="str">
+      <c r="B33" s="108" t="str">
         <f>IF(B32&lt;$B$23,"YES","NO")</f>
         <v>NO</v>
       </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="32"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="31"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="115"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="115"/>
+      <c r="M33" s="115"/>
+      <c r="N33" s="115"/>
+      <c r="O33" s="116"/>
     </row>
     <row r="35" spans="1:15" ht="23" customHeight="1">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="86"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="80"/>
     </row>
     <row r="36" spans="1:15" ht="23" customHeight="1">
-      <c r="A36" s="87"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="89"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="83"/>
     </row>
     <row r="37" spans="1:15" ht="23" customHeight="1">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="17"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
     </row>
     <row r="38" spans="1:15" ht="23" customHeight="1">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="23" customHeight="1">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="16"/>
     </row>
     <row r="40" spans="1:15" ht="23" customHeight="1">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B40" s="21">
         <v>0.05</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="17"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="16"/>
     </row>
     <row r="41" spans="1:15" ht="23" customHeight="1">
-      <c r="A41" s="18"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="17"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="16"/>
     </row>
     <row r="42" spans="1:15" ht="23" customHeight="1">
-      <c r="A42" s="18"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="34"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="33"/>
     </row>
     <row r="43" spans="1:15" ht="23" customHeight="1">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="21"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="20"/>
     </row>
     <row r="44" spans="1:15" ht="23" customHeight="1">
-      <c r="A44" s="18"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="17"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="16"/>
     </row>
     <row r="45" spans="1:15" ht="23" customHeight="1">
-      <c r="A45" s="18"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="17"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="16"/>
     </row>
     <row r="46" spans="1:15" ht="23" customHeight="1">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="25">
+      <c r="B46" s="24">
         <f>$M$2-$H$2</f>
         <v>0.99200000000000443</v>
       </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="17"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="16"/>
     </row>
     <row r="47" spans="1:15" ht="23" customHeight="1">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="25">
+      <c r="B47" s="24">
         <f>$H$3/SQRT($M$3)</f>
         <v>0.8</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="17"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="16"/>
     </row>
     <row r="48" spans="1:15" ht="23" customHeight="1">
-      <c r="A48" s="35" t="s">
+      <c r="A48" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="23">
+      <c r="B48" s="22">
         <f>B46/B47</f>
         <v>1.2400000000000055</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="17" t="s">
-        <v>123</v>
+      <c r="D48" s="16" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="23" customHeight="1">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="90">
+      <c r="B49" s="68">
         <f>NORMSDIST(B48)</f>
         <v>0.89251230292541417</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F49" s="53" t="s">
+      <c r="F49" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
+      <c r="G49" s="112"/>
+      <c r="H49" s="112"/>
+      <c r="I49" s="112"/>
+      <c r="J49" s="112"/>
+      <c r="K49" s="112"/>
+      <c r="L49" s="112"/>
+      <c r="M49" s="112"/>
+      <c r="N49" s="112"/>
+      <c r="O49" s="113"/>
     </row>
     <row r="50" spans="1:15" ht="23" customHeight="1">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="38" t="str">
+      <c r="B50" s="108" t="str">
         <f>IF(B49&lt;$B40,"YES","NO")</f>
         <v>NO</v>
       </c>
-      <c r="C50" s="39"/>
-      <c r="D50" s="32"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="31"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="115"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="115"/>
+      <c r="J50" s="115"/>
+      <c r="K50" s="115"/>
+      <c r="L50" s="115"/>
+      <c r="M50" s="115"/>
+      <c r="N50" s="115"/>
+      <c r="O50" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9214,10 +11232,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153BC16D-F329-A046-B6A5-FD52E9C08F89}">
-  <dimension ref="A1:O78"/>
+  <dimension ref="A1:O92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" customHeight="1"/>
@@ -9230,12 +11248,12 @@
     <col min="6" max="6" width="3.83203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="19.83203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="4" style="3" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="3" customWidth="1"/>
     <col min="11" max="11" width="3.33203125" style="3" customWidth="1"/>
     <col min="12" max="12" width="19.1640625" style="3" customWidth="1"/>
     <col min="13" max="13" width="3.33203125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="19.83203125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="20.1640625" style="3" customWidth="1"/>
     <col min="15" max="15" width="7.83203125" style="3" customWidth="1"/>
     <col min="16" max="16" width="6.83203125" style="3" customWidth="1"/>
     <col min="17" max="17" width="23.5" style="3" customWidth="1"/>
@@ -9243,12 +11261,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
       <c r="E1" s="2"/>
       <c r="G1" s="9" t="s">
         <v>33</v>
@@ -9259,10 +11277,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="23" customHeight="1">
-      <c r="A2" s="87"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
       <c r="E2" s="2"/>
       <c r="G2" s="7">
         <v>64.8</v>
@@ -9287,10 +11305,10 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="23" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
       <c r="G3" s="7">
         <v>64.599999999999994</v>
       </c>
@@ -9314,16 +11332,16 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="23" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="6"/>
@@ -9351,14 +11369,14 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="23" customHeight="1">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="16"/>
       <c r="G5" s="7">
         <v>63.3</v>
       </c>
@@ -9368,14 +11386,14 @@
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:15" ht="23" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <v>0.05</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="16"/>
       <c r="G6" s="7">
         <v>64</v>
       </c>
@@ -9385,10 +11403,10 @@
       <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:15" ht="23" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="17"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="16"/>
       <c r="G7" s="7">
         <v>64.3</v>
       </c>
@@ -9398,10 +11416,10 @@
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:15" ht="23" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
       <c r="G8" s="7">
         <v>67.099999999999994</v>
       </c>
@@ -9411,12 +11429,12 @@
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:15" ht="23" customHeight="1">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="20"/>
       <c r="G9" s="7">
         <v>65</v>
       </c>
@@ -9426,10 +11444,10 @@
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:15" ht="23" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="17"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="16"/>
       <c r="G10" s="7">
         <v>69.400000000000006</v>
       </c>
@@ -9439,10 +11457,10 @@
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:15" ht="23" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="17"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="16"/>
       <c r="G11" s="7">
         <v>66.2</v>
       </c>
@@ -9452,15 +11470,15 @@
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:15" ht="23" customHeight="1">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="24">
         <f>$O$2-$J$2</f>
         <v>1.9982499999999987</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="17"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="16"/>
       <c r="G12" s="7">
         <v>65.7</v>
       </c>
@@ -9470,17 +11488,17 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:15" ht="23" customHeight="1">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="24">
         <f>SQRT((($J$3^2)/$J$4)+(($O$3^2)/$O$4))</f>
         <v>0.8850535176850417</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>58</v>
       </c>
       <c r="G13" s="7">
@@ -9492,23 +11510,23 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:15" ht="23" customHeight="1">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="38">
         <f>B12/B13</f>
         <v>2.2577730725557132</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>122</v>
+      <c r="D14" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="G14" s="7">
         <v>65.7</v>
       </c>
-      <c r="I14" s="41"/>
+      <c r="I14" s="39"/>
       <c r="J14" s="8"/>
       <c r="L14" s="7">
         <v>76</v>
@@ -9516,17 +11534,17 @@
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:15" ht="23" customHeight="1">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="90">
+      <c r="B15" s="68">
         <f>TDIST(B14,ROUND((((($J$3^2)/$J$4)+(($O$3^2)/$O$4))^2) / ((((($J$3^2)/$J$4)^2)/($J$4-1))+(((($O$3^2)/$O$4)^2)/($O$4-1))),0),2)</f>
         <v>3.0301233521560972E-2</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="7">
@@ -9538,15 +11556,15 @@
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:15" ht="23" customHeight="1">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="22" t="str">
+      <c r="B16" s="110" t="str">
         <f>IF(B15&lt;$B$6,"YES","NO")</f>
         <v>YES</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="17"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="16"/>
       <c r="G16" s="7">
         <v>64.2</v>
       </c>
@@ -9556,10 +11574,10 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" ht="23" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="17"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="16"/>
       <c r="G17" s="7">
         <v>63.2</v>
       </c>
@@ -9569,30 +11587,30 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" ht="23" customHeight="1">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="17"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="16"/>
       <c r="L18" s="7">
         <v>67.2</v>
       </c>
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" ht="23" customHeight="1">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="24">
         <f>B14</f>
         <v>2.2577730725557132</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>123</v>
+      <c r="D19" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="L19" s="7">
         <v>64.8</v>
@@ -9600,17 +11618,17 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" ht="23" customHeight="1">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="29">
         <f>(1-NORMSDIST(ABS(B19)))*2</f>
         <v>2.3959810829484951E-2</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="31" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="7">
@@ -9625,48 +11643,48 @@
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:13" ht="23" customHeight="1">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="86"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="80"/>
       <c r="L22" s="7">
         <v>58.5</v>
       </c>
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" ht="23" customHeight="1">
-      <c r="A23" s="87"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="89"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="83"/>
       <c r="L23" s="7">
         <v>66.400000000000006</v>
       </c>
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:13" ht="23" customHeight="1">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
       <c r="L24" s="7">
         <v>65.599999999999994</v>
       </c>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:13" ht="23" customHeight="1">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="20" t="s">
         <v>56</v>
       </c>
       <c r="L25" s="7">
@@ -9675,521 +11693,687 @@
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13" ht="23" customHeight="1">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="16"/>
       <c r="L26" s="7">
         <v>66.7</v>
       </c>
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" ht="23" customHeight="1">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="21">
         <v>0.05</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="17"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="16"/>
     </row>
     <row r="28" spans="1:13" ht="23" customHeight="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="17"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="16"/>
     </row>
     <row r="29" spans="1:13" ht="23" customHeight="1">
-      <c r="A29" s="18"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="17"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="16"/>
     </row>
     <row r="30" spans="1:13" ht="23" customHeight="1">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="17"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="16"/>
     </row>
     <row r="31" spans="1:13" ht="23" customHeight="1">
-      <c r="A31" s="24"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="17"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="16"/>
     </row>
     <row r="32" spans="1:13" ht="23" customHeight="1">
-      <c r="A32" s="18"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="17"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="16"/>
     </row>
     <row r="33" spans="1:4" ht="23" customHeight="1">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="24">
         <f>$O$2-$J$2</f>
         <v>1.9982499999999987</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="17"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="16"/>
     </row>
     <row r="34" spans="1:4" ht="23" customHeight="1">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="24">
         <f>SQRT((($J$3^2)/$J$4)+(($O$3^2)/$O$4))</f>
         <v>0.8850535176850417</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="23" customHeight="1">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="24">
         <f>B33/B34</f>
         <v>2.2577730725557132</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="17" t="s">
-        <v>122</v>
+      <c r="D35" s="16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="23" customHeight="1">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="90">
+      <c r="B36" s="68">
         <f>TDIST(B35,ROUND((((($J$3^2)/$J$4)+(($O$3^2)/$O$4))^2) / ((((($J$3^2)/$J$4)^2)/($J$4-1))+(((($O$3^2)/$O$4)^2)/($O$4-1))),0),1)</f>
         <v>1.5150616760780486E-2</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="23" customHeight="1">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="22" t="str">
+      <c r="B37" s="110" t="str">
         <f>IF(B36&lt;$B$27,"YES","NO")</f>
         <v>YES</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="17"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="16"/>
     </row>
     <row r="38" spans="1:4" ht="23" customHeight="1">
-      <c r="A38" s="27"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="17"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="16"/>
     </row>
     <row r="39" spans="1:4" ht="23" customHeight="1">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="17"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="16"/>
     </row>
     <row r="40" spans="1:4" ht="23" customHeight="1">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="25">
+      <c r="B40" s="24">
         <f>B35</f>
         <v>2.2577730725557132</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>123</v>
+      <c r="D40" s="16" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="23" customHeight="1">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="30">
+      <c r="B41" s="29">
         <f>1-NORMSDIST(B40)</f>
         <v>1.1979905414742476E-2</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="23" customHeight="1">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="86"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="80"/>
     </row>
     <row r="45" spans="1:4" ht="23" customHeight="1">
-      <c r="A45" s="87"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="89"/>
+      <c r="A45" s="81"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="83"/>
     </row>
     <row r="46" spans="1:4" ht="23" customHeight="1">
-      <c r="A46" s="15"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="17"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="16"/>
     </row>
     <row r="47" spans="1:4" ht="23" customHeight="1">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="23" customHeight="1">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="17"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="16"/>
     </row>
     <row r="49" spans="1:14" ht="23" customHeight="1">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="22">
+      <c r="B49" s="21">
         <v>0.05</v>
       </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="17"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="16"/>
     </row>
     <row r="50" spans="1:14" ht="23" customHeight="1">
-      <c r="A50" s="18"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="17"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="16"/>
     </row>
     <row r="51" spans="1:14" ht="23" customHeight="1">
-      <c r="A51" s="18"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="17"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="16"/>
     </row>
     <row r="52" spans="1:14" ht="23" customHeight="1">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="17"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="16"/>
     </row>
     <row r="53" spans="1:14" ht="23" customHeight="1">
-      <c r="A53" s="24"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="17"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="16"/>
     </row>
     <row r="54" spans="1:14" ht="23" customHeight="1">
-      <c r="A54" s="18"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="17"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="16"/>
     </row>
     <row r="55" spans="1:14" ht="23" customHeight="1">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="25">
+      <c r="B55" s="24">
         <f>$O$2-$J$2</f>
         <v>1.9982499999999987</v>
       </c>
-      <c r="C55" s="23"/>
-      <c r="D55" s="17"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="16"/>
     </row>
     <row r="56" spans="1:14" ht="23" customHeight="1">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B56" s="25">
+      <c r="B56" s="24">
         <f>SQRT((($J$3^2)/$J$4)+(($O$3^2)/$O$4))</f>
         <v>0.8850535176850417</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="23" customHeight="1">
-      <c r="A57" s="26" t="s">
+      <c r="A57" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="25">
+      <c r="B57" s="24">
         <f>B55/B56</f>
         <v>2.2577730725557132</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="17" t="s">
-        <v>122</v>
+      <c r="D57" s="16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="23" customHeight="1">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="90">
+      <c r="B58" s="68">
         <f>1-TDIST(B57,ROUND((((($J$3^2)/$J$4)+(($O$3^2)/$O$4))^2) / ((((($J$3^2)/$J$4)^2)/($J$4-1))+(((($O$3^2)/$O$4)^2)/($O$4-1))),0),1)</f>
         <v>0.98484938323921956</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="20" t="s">
+      <c r="E58" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F58" s="53" t="s">
+      <c r="F58" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="53"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="53"/>
-      <c r="M58" s="53"/>
-      <c r="N58" s="53"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="77"/>
+      <c r="I58" s="77"/>
+      <c r="J58" s="77"/>
+      <c r="K58" s="77"/>
+      <c r="L58" s="77"/>
+      <c r="M58" s="77"/>
+      <c r="N58" s="77"/>
     </row>
     <row r="59" spans="1:14" ht="23" customHeight="1">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B59" s="22" t="str">
+      <c r="B59" s="110" t="str">
         <f>IF(B58&lt;$B$49,"YES","NO")</f>
         <v>NO</v>
       </c>
-      <c r="C59" s="23"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="53"/>
-      <c r="J59" s="53"/>
-      <c r="K59" s="53"/>
-      <c r="L59" s="53"/>
-      <c r="M59" s="53"/>
-      <c r="N59" s="53"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="77"/>
+      <c r="I59" s="77"/>
+      <c r="J59" s="77"/>
+      <c r="K59" s="77"/>
+      <c r="L59" s="77"/>
+      <c r="M59" s="77"/>
+      <c r="N59" s="77"/>
     </row>
     <row r="60" spans="1:14" ht="23" customHeight="1">
-      <c r="A60" s="18"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="17"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="16"/>
     </row>
     <row r="61" spans="1:14" ht="23" customHeight="1">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="17"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="16"/>
     </row>
     <row r="62" spans="1:14" ht="23" customHeight="1">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="25">
+      <c r="B62" s="24">
         <f>B57</f>
         <v>2.2577730725557132</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="17" t="s">
-        <v>123</v>
+      <c r="D62" s="16" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="23" customHeight="1">
-      <c r="A63" s="29" t="s">
+      <c r="A63" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B63" s="30">
+      <c r="B63" s="29">
         <f>NORMSDIST(B62)</f>
         <v>0.98802009458525752</v>
       </c>
-      <c r="C63" s="31" t="s">
+      <c r="C63" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="32" t="s">
+      <c r="D63" s="31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="23" customHeight="1">
-      <c r="A65" s="14" t="s">
+    <row r="64" spans="1:14" ht="23" customHeight="1">
+      <c r="A64" s="119"/>
+      <c r="B64" s="120"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="22"/>
+    </row>
+    <row r="65" spans="1:5" s="37" customFormat="1" ht="23" customHeight="1"/>
+    <row r="66" spans="1:5" s="22" customFormat="1" ht="23" customHeight="1"/>
+    <row r="67" spans="1:5" ht="23" customHeight="1">
+      <c r="A67" s="118" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="23" customHeight="1">
-      <c r="A66" t="s">
+      <c r="D67" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="23" customHeight="1">
+      <c r="A68" s="118"/>
+    </row>
+    <row r="69" spans="1:5" ht="23" customHeight="1">
+      <c r="A69" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="B66"/>
-      <c r="C66"/>
-    </row>
-    <row r="67" spans="1:3" ht="23" customHeight="1" thickBot="1">
-      <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67"/>
-    </row>
-    <row r="68" spans="1:3" ht="23" customHeight="1">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12" t="s">
+      <c r="B69"/>
+      <c r="C69"/>
+    </row>
+    <row r="70" spans="1:5" ht="23" customHeight="1" thickBot="1">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
+    </row>
+    <row r="71" spans="1:5" ht="23" customHeight="1">
+      <c r="A71" s="12"/>
+      <c r="B71" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C71" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="23" customHeight="1">
-      <c r="A69" s="10" t="s">
+    <row r="72" spans="1:5" ht="23" customHeight="1">
+      <c r="A72" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B72" s="10">
         <v>66.992000000000004</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C72" s="10">
         <v>64.993750000000006</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="23" customHeight="1">
-      <c r="A70" s="10" t="s">
+    <row r="73" spans="1:5" ht="23" customHeight="1">
+      <c r="A73" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B73" s="10">
         <v>15.321599999999991</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C73" s="10">
         <v>2.7272916666666691</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="23" customHeight="1">
-      <c r="A71" s="10" t="s">
+    <row r="74" spans="1:5" ht="23" customHeight="1">
+      <c r="A74" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B74" s="10">
         <v>25</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C74" s="10">
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="23" customHeight="1">
-      <c r="A72" s="10" t="s">
+    <row r="75" spans="1:5" ht="23" customHeight="1">
+      <c r="A75" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B75" s="10">
         <v>0</v>
       </c>
-      <c r="C72" s="10"/>
-    </row>
-    <row r="73" spans="1:3" ht="23" customHeight="1">
-      <c r="A73" s="10" t="s">
+      <c r="C75" s="10"/>
+    </row>
+    <row r="76" spans="1:5" ht="23" customHeight="1">
+      <c r="A76" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B76" s="10">
         <v>35</v>
       </c>
-      <c r="C73" s="10"/>
-    </row>
-    <row r="74" spans="1:3" ht="23" customHeight="1">
-      <c r="A74" s="10" t="s">
+      <c r="C76" s="10"/>
+    </row>
+    <row r="77" spans="1:5" ht="23" customHeight="1">
+      <c r="A77" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B77" s="10">
         <v>2.2577730725557132</v>
       </c>
-      <c r="C74" s="10"/>
-    </row>
-    <row r="75" spans="1:3" ht="23" customHeight="1">
-      <c r="A75" s="10" t="s">
+      <c r="C77" s="10"/>
+    </row>
+    <row r="78" spans="1:5" ht="23" customHeight="1">
+      <c r="A78" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B78" s="47">
         <v>1.5150616760780486E-2</v>
       </c>
-      <c r="C75" s="10"/>
-    </row>
-    <row r="76" spans="1:3" ht="23" customHeight="1">
-      <c r="A76" s="10" t="s">
+      <c r="C78" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E78" s="117"/>
+    </row>
+    <row r="79" spans="1:5" ht="23" customHeight="1">
+      <c r="A79" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B76" s="10">
+      <c r="B79" s="10">
         <v>1.6895724577802647</v>
       </c>
-      <c r="C76" s="10"/>
-    </row>
-    <row r="77" spans="1:3" ht="23" customHeight="1">
-      <c r="A77" s="10" t="s">
+      <c r="C79" s="10"/>
+    </row>
+    <row r="80" spans="1:5" ht="23" customHeight="1">
+      <c r="A80" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B80" s="47">
         <v>3.0301233521560972E-2</v>
       </c>
-      <c r="C77" s="10"/>
-    </row>
-    <row r="78" spans="1:3" ht="23" customHeight="1" thickBot="1">
-      <c r="A78" s="11" t="s">
+      <c r="C80" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="23" customHeight="1" thickBot="1">
+      <c r="A81" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B78" s="11">
+      <c r="B81" s="11">
         <v>2.0301079282503438</v>
       </c>
-      <c r="C78" s="11"/>
+      <c r="C81" s="11"/>
+    </row>
+    <row r="83" spans="1:12" ht="23" customHeight="1">
+      <c r="A83" s="101" t="s">
+        <v>140</v>
+      </c>
+      <c r="B83"/>
+      <c r="C83" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="111" t="s">
+        <v>147</v>
+      </c>
+      <c r="E83" s="112"/>
+      <c r="F83" s="112"/>
+      <c r="G83" s="112"/>
+      <c r="H83" s="112"/>
+      <c r="I83" s="112"/>
+      <c r="J83" s="112"/>
+      <c r="K83" s="112"/>
+      <c r="L83" s="113"/>
+    </row>
+    <row r="84" spans="1:12" ht="23" customHeight="1" thickBot="1">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84" s="114"/>
+      <c r="E84" s="115"/>
+      <c r="F84" s="115"/>
+      <c r="G84" s="115"/>
+      <c r="H84" s="115"/>
+      <c r="I84" s="115"/>
+      <c r="J84" s="115"/>
+      <c r="K84" s="115"/>
+      <c r="L84" s="116"/>
+    </row>
+    <row r="85" spans="1:12" ht="23" customHeight="1">
+      <c r="A85" s="12"/>
+      <c r="B85" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="23" customHeight="1">
+      <c r="A86" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" s="10">
+        <v>66.992000000000004</v>
+      </c>
+      <c r="C86" s="10">
+        <v>64.993750000000006</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="23" customHeight="1">
+      <c r="A87" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B87" s="10">
+        <v>15.321599999999991</v>
+      </c>
+      <c r="C87" s="10">
+        <v>2.7272916666666691</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="23" customHeight="1">
+      <c r="A88" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B88" s="10">
+        <v>25</v>
+      </c>
+      <c r="C88" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="23" customHeight="1">
+      <c r="A89" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B89" s="10">
+        <v>24</v>
+      </c>
+      <c r="C89" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="23" customHeight="1">
+      <c r="A90" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B90" s="10">
+        <v>5.6178809869375828</v>
+      </c>
+      <c r="C90" s="10"/>
+    </row>
+    <row r="91" spans="1:12" ht="23" customHeight="1">
+      <c r="A91" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B91" s="47">
+        <v>5.7505069717334869E-4</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="111" t="s">
+        <v>146</v>
+      </c>
+      <c r="E91" s="112"/>
+      <c r="F91" s="112"/>
+      <c r="G91" s="112"/>
+      <c r="H91" s="112"/>
+      <c r="I91" s="112"/>
+      <c r="J91" s="112"/>
+      <c r="K91" s="112"/>
+      <c r="L91" s="113"/>
+    </row>
+    <row r="92" spans="1:12" ht="23" customHeight="1" thickBot="1">
+      <c r="A92" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B92" s="11">
+        <v>2.2878260581447916</v>
+      </c>
+      <c r="C92" s="11"/>
+      <c r="D92" s="114"/>
+      <c r="E92" s="115"/>
+      <c r="F92" s="115"/>
+      <c r="G92" s="115"/>
+      <c r="H92" s="115"/>
+      <c r="I92" s="115"/>
+      <c r="J92" s="115"/>
+      <c r="K92" s="115"/>
+      <c r="L92" s="116"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="D91:L92"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="A22:D23"/>
     <mergeCell ref="A44:D45"/>
     <mergeCell ref="F58:N59"/>
+    <mergeCell ref="D83:L84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10200,372 +12384,374 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295F6195-A543-C547-A8DD-57D517E6B009}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="6" max="12" width="12" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="49" customHeight="1">
-      <c r="A1" s="94">
+      <c r="A1" s="70">
         <v>1</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="93" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
     </row>
     <row r="2" spans="1:13" ht="49" customHeight="1">
-      <c r="A2" s="94">
+      <c r="A2" s="70">
         <v>2</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="93" t="s">
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
     </row>
     <row r="3" spans="1:13" ht="49" customHeight="1">
-      <c r="A3" s="94">
+      <c r="A3" s="70">
         <v>3</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="93" t="s">
-        <v>119</v>
-      </c>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="92">
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="69">
         <f>1.516*50 - 33*1 + 121.729</f>
         <v>164.529</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="19">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="61" t="s">
         <v>74</v>
       </c>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
     </row>
     <row r="6" spans="1:13" ht="19">
-      <c r="A6" s="99">
+      <c r="A6" s="75">
         <v>1</v>
       </c>
-      <c r="B6" s="100">
+      <c r="B6" s="76">
         <v>161.6</v>
       </c>
-      <c r="C6" s="100">
+      <c r="C6" s="76">
         <v>28.1</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="61" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="19">
-      <c r="A7" s="99">
+      <c r="A7" s="75">
         <v>2</v>
       </c>
-      <c r="B7" s="100">
+      <c r="B7" s="76">
         <v>211.9</v>
       </c>
-      <c r="C7" s="100">
+      <c r="C7" s="76">
         <v>56.8</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="61" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="19">
-      <c r="A8" s="99">
+      <c r="A8" s="75">
         <v>3</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="76">
         <v>166.8</v>
       </c>
-      <c r="C8" s="100">
+      <c r="C8" s="76">
         <v>24.4</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="61" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="19">
-      <c r="A9" s="99">
+      <c r="A9" s="75">
         <v>4</v>
       </c>
-      <c r="B9" s="100">
+      <c r="B9" s="76">
         <v>199.2</v>
       </c>
-      <c r="C9" s="100">
+      <c r="C9" s="76">
         <v>41.3</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="61" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="19">
-      <c r="A10" s="99">
+      <c r="A10" s="75">
         <v>5</v>
       </c>
-      <c r="B10" s="100">
+      <c r="B10" s="76">
         <v>186.5</v>
       </c>
-      <c r="C10" s="100">
+      <c r="C10" s="76">
         <v>48.7</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="61" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="19">
-      <c r="A11" s="99">
+      <c r="A11" s="75">
         <v>6</v>
       </c>
-      <c r="B11" s="100">
+      <c r="B11" s="76">
         <v>187.1</v>
       </c>
-      <c r="C11" s="100">
+      <c r="C11" s="76">
         <v>43.6</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="61" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="19">
-      <c r="A12" s="99">
+      <c r="A12" s="75">
         <v>7</v>
       </c>
-      <c r="B12" s="100">
+      <c r="B12" s="76">
         <v>233.5</v>
       </c>
-      <c r="C12" s="100">
+      <c r="C12" s="76">
         <v>74.2</v>
       </c>
-      <c r="D12" s="77" t="s">
+      <c r="D12" s="61" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="19">
-      <c r="A13" s="99">
+      <c r="A13" s="75">
         <v>8</v>
       </c>
-      <c r="B13" s="100">
+      <c r="B13" s="76">
         <v>219.7</v>
       </c>
-      <c r="C13" s="100">
+      <c r="C13" s="76">
         <v>67.3</v>
       </c>
-      <c r="D13" s="77" t="s">
+      <c r="D13" s="61" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="19">
-      <c r="A14" s="99">
+      <c r="A14" s="75">
         <v>9</v>
       </c>
-      <c r="B14" s="100">
+      <c r="B14" s="76">
         <v>211.7</v>
       </c>
-      <c r="C14" s="100">
+      <c r="C14" s="76">
         <v>66.099999999999994</v>
       </c>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="61" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="19">
-      <c r="A15" s="99">
+      <c r="A15" s="75">
         <v>10</v>
       </c>
-      <c r="B15" s="100">
+      <c r="B15" s="76">
         <v>197.3</v>
       </c>
-      <c r="C15" s="100">
+      <c r="C15" s="76">
         <v>49.5</v>
       </c>
-      <c r="D15" s="77" t="s">
+      <c r="D15" s="61" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="19">
-      <c r="A16" s="99">
+      <c r="A16" s="75">
         <v>11</v>
       </c>
-      <c r="B16" s="100">
+      <c r="B16" s="76">
         <v>165.3</v>
       </c>
-      <c r="C16" s="100">
+      <c r="C16" s="76">
         <v>57.8</v>
       </c>
-      <c r="D16" s="77" t="s">
+      <c r="D16" s="61" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="19">
-      <c r="A17" s="99">
+      <c r="A17" s="75">
         <v>12</v>
       </c>
-      <c r="B17" s="100">
+      <c r="B17" s="76">
         <v>169</v>
       </c>
-      <c r="C17" s="100">
+      <c r="C17" s="76">
         <v>43.7</v>
       </c>
-      <c r="D17" s="77" t="s">
+      <c r="D17" s="61" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19">
-      <c r="A18" s="99">
+      <c r="A18" s="75">
         <v>13</v>
       </c>
-      <c r="B18" s="100">
+      <c r="B18" s="76">
         <v>158.1</v>
       </c>
-      <c r="C18" s="100">
+      <c r="C18" s="76">
         <v>54.6</v>
       </c>
-      <c r="D18" s="77" t="s">
+      <c r="D18" s="61" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="19">
-      <c r="A19" s="99">
+      <c r="A19" s="75">
         <v>14</v>
       </c>
-      <c r="B19" s="100">
+      <c r="B19" s="76">
         <v>152.4</v>
       </c>
-      <c r="C19" s="100">
+      <c r="C19" s="76">
         <v>35.799999999999997</v>
       </c>
-      <c r="D19" s="77" t="s">
+      <c r="D19" s="61" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="19">
-      <c r="A20" s="99">
+      <c r="A20" s="75">
         <v>15</v>
       </c>
-      <c r="B20" s="100">
+      <c r="B20" s="76">
         <v>172.9</v>
       </c>
-      <c r="C20" s="100">
+      <c r="C20" s="76">
         <v>52</v>
       </c>
-      <c r="D20" s="77" t="s">
+      <c r="D20" s="61" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="19">
-      <c r="A21" s="99">
+      <c r="A21" s="75">
         <v>16</v>
       </c>
-      <c r="B21" s="100">
+      <c r="B21" s="76">
         <v>124.8</v>
       </c>
-      <c r="C21" s="100">
+      <c r="C21" s="76">
         <v>20.7</v>
       </c>
-      <c r="D21" s="77" t="s">
+      <c r="D21" s="61" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="19">
-      <c r="A22" s="99">
+      <c r="A22" s="75">
         <v>17</v>
       </c>
-      <c r="B22" s="100">
+      <c r="B22" s="76">
         <v>180.8</v>
       </c>
-      <c r="C22" s="100">
+      <c r="C22" s="76">
         <v>49.7</v>
       </c>
-      <c r="D22" s="77" t="s">
+      <c r="D22" s="61" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="19">
-      <c r="A23" s="99">
+      <c r="A23" s="75">
         <v>18</v>
       </c>
-      <c r="B23" s="100">
+      <c r="B23" s="76">
         <v>165.1</v>
       </c>
-      <c r="C23" s="100">
+      <c r="C23" s="76">
         <v>49.4</v>
       </c>
-      <c r="D23" s="77" t="s">
+      <c r="D23" s="61" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="19">
-      <c r="A24" s="99">
+      <c r="A24" s="75">
         <v>19</v>
       </c>
-      <c r="B24" s="100">
+      <c r="B24" s="76">
         <v>163.19999999999999</v>
       </c>
-      <c r="C24" s="100">
+      <c r="C24" s="76">
         <v>51.9</v>
       </c>
-      <c r="D24" s="77" t="s">
+      <c r="D24" s="61" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19">
-      <c r="A25" s="99">
+      <c r="A25" s="75">
         <v>20</v>
       </c>
-      <c r="B25" s="100">
+      <c r="B25" s="76">
         <v>75.900000000000006</v>
       </c>
-      <c r="C25" s="100">
+      <c r="C25" s="76">
         <v>6.7</v>
       </c>
-      <c r="D25" s="77" t="s">
+      <c r="D25" s="61" t="s">
         <v>76</v>
       </c>
     </row>
@@ -10585,10 +12771,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F46550B-7E2C-8344-B7FC-5DA755FAE6DC}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10610,15 +12796,15 @@
     </row>
     <row r="2" spans="1:9" ht="17" thickBot="1"/>
     <row r="3" spans="1:9" ht="19">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="G3" s="47">
+      <c r="B3" s="41"/>
+      <c r="G3" s="45">
         <f>SUM($E$33:$E$52)</f>
         <v>7109.4428808114271</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="52" t="s">
         <v>109</v>
       </c>
     </row>
@@ -10626,31 +12812,31 @@
       <c r="A4" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="74">
+      <c r="B4" s="58">
         <v>0.83342925240340993</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="46">
         <f>SUM($H$33:$H$52)</f>
         <v>23279.447999999997</v>
       </c>
-      <c r="H4" s="58"/>
+      <c r="H4" s="53"/>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="76">
+      <c r="B5" s="60">
         <v>0.6946043187617067</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="G5" s="60" t="s">
+      <c r="C5" s="19"/>
+      <c r="G5" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="H5" s="47">
-        <f>SUMPRODUCT($C$33:$C$52,$C$33:$C$52)/($B$13)</f>
+      <c r="H5" s="45">
+        <f>SUMPRODUCT($C$33:$C$52,$C$33:$C$52)/$B$13</f>
         <v>394.96904893396817</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="52" t="s">
         <v>106</v>
       </c>
     </row>
@@ -10658,22 +12844,22 @@
       <c r="A6" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="71">
+      <c r="B6" s="55">
         <v>0.67763789202624602</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="48">
-        <f>SUMPRODUCT($G$33:$G$52,$G$33:$G$52)/($B$8-1)</f>
+      <c r="C6" s="19"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="46">
+        <f>SUM($H$33:$H$52)/($B$8-1)</f>
         <v>1225.2341052631577</v>
       </c>
-      <c r="I6" s="58"/>
+      <c r="I6" s="53"/>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="71">
+      <c r="B7" s="55">
         <v>19.873828240526986</v>
       </c>
     </row>
@@ -10684,25 +12870,25 @@
       <c r="B8" s="11">
         <v>20</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="45">
         <f>SUM($E$33:$E$52)</f>
         <v>7109.4428808114271</v>
       </c>
-      <c r="H8" s="59" t="s">
+      <c r="H8" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="I8" s="55">
+      <c r="I8" s="88">
         <f>SQRT(G8/G9)</f>
         <v>19.87382824052699</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="19">
-      <c r="G9" s="48">
-        <f>B13</f>
+      <c r="G9" s="46">
+        <f>$B$13</f>
         <v>18</v>
       </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="55"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="88"/>
     </row>
     <row r="10" spans="1:9" ht="17" thickBot="1">
       <c r="A10" t="s">
@@ -10780,28 +12966,28 @@
     <row r="15" spans="1:9" ht="17" thickBot="1"/>
     <row r="16" spans="1:9">
       <c r="A16" s="12"/>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="42" t="s">
         <v>98</v>
       </c>
     </row>
@@ -10809,7 +12995,7 @@
       <c r="A17" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="49">
+      <c r="B17" s="47">
         <v>93.873801239157203</v>
       </c>
       <c r="C17" s="10">
@@ -10818,7 +13004,7 @@
       <c r="D17" s="10">
         <v>6.9763759436203339</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="49">
         <v>1.6254593597373962E-6</v>
       </c>
       <c r="F17" s="10">
@@ -10838,7 +13024,7 @@
       <c r="A18" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="50">
+      <c r="B18" s="48">
         <v>1.7622508676318511</v>
       </c>
       <c r="C18" s="11">
@@ -10847,7 +13033,7 @@
       <c r="D18" s="11">
         <v>6.3984318200708907</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="50">
         <v>5.0356487511441125E-6</v>
       </c>
       <c r="F18" s="11">
@@ -10868,35 +13054,35 @@
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="73"/>
+      <c r="E19" s="57"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" ht="21">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="63" t="s">
         <v>115</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
-      <c r="E20" s="73"/>
+      <c r="E20" s="57"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
     </row>
     <row r="26" spans="1:9" ht="21">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="62" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="80" t="s">
+      <c r="C27" s="64" t="s">
         <v>113</v>
       </c>
     </row>
@@ -10905,48 +13091,54 @@
         <f>A18</f>
         <v>Advertising (in millions)</v>
       </c>
-      <c r="B28" s="81" t="str">
+      <c r="B28" s="65" t="str">
         <f>IF(B18&gt;0, "Positive", "Negative")</f>
         <v>Positive</v>
       </c>
-      <c r="C28" s="81" t="str">
+      <c r="C28" s="65" t="str">
         <f>IF(E18&lt;0.05,"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="21">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="62" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17" thickBot="1">
+    <row r="31" spans="1:9" s="101" customFormat="1" ht="22" thickBot="1">
       <c r="A31" t="s">
         <v>99</v>
       </c>
+      <c r="B31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="101" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="56" t="s">
+      <c r="E32" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="F32" s="45" t="s">
+      <c r="F32" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="G32" s="45" t="s">
+      <c r="G32" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="H32" s="45" t="s">
+      <c r="H32" s="43" t="s">
         <v>108</v>
       </c>
     </row>
@@ -10972,7 +13164,7 @@
         <v>161.6</v>
       </c>
       <c r="G33">
-        <f>F33-AVERAGE($F$33:$F$52)</f>
+        <f t="shared" ref="G33:G52" si="0">F33-AVERAGE($F$33:$F$52)</f>
         <v>-13.54000000000002</v>
       </c>
       <c r="H33">
@@ -10994,7 +13186,7 @@
         <v>0.92693177572485996</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E52" si="0">C34^2</f>
+        <f t="shared" ref="E34:E52" si="1">C34^2</f>
         <v>321.49743245175875</v>
       </c>
       <c r="F34">
@@ -11002,11 +13194,11 @@
         <v>211.9</v>
       </c>
       <c r="G34">
-        <f>F34-AVERAGE($F$33:$F$52)</f>
+        <f t="shared" si="0"/>
         <v>36.759999999999991</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34:H52" si="1">G34^2</f>
+        <f t="shared" ref="H34:H52" si="2">G34^2</f>
         <v>1351.2975999999994</v>
       </c>
     </row>
@@ -11024,7 +13216,7 @@
         <v>1.5471279347695888</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>895.64194398636334</v>
       </c>
       <c r="F35">
@@ -11032,11 +13224,11 @@
         <v>166.8</v>
       </c>
       <c r="G35">
-        <f>F35-AVERAGE($F$33:$F$52)</f>
+        <f t="shared" si="0"/>
         <v>-8.3400000000000034</v>
       </c>
       <c r="H35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69.555600000000055</v>
       </c>
     </row>
@@ -11054,7 +13246,7 @@
         <v>1.6824666590240733</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1059.1925117671756</v>
       </c>
       <c r="F36">
@@ -11062,11 +13254,11 @@
         <v>199.2</v>
       </c>
       <c r="G36">
-        <f>F36-AVERAGE($F$33:$F$52)</f>
+        <f t="shared" si="0"/>
         <v>24.059999999999974</v>
       </c>
       <c r="H36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>578.88359999999875</v>
       </c>
     </row>
@@ -11084,7 +13276,7 @@
         <v>0.35177132641892617</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46.302329487742178</v>
       </c>
       <c r="F37">
@@ -11092,11 +13284,11 @@
         <v>186.5</v>
       </c>
       <c r="G37">
-        <f>F37-AVERAGE($F$33:$F$52)</f>
+        <f t="shared" si="0"/>
         <v>11.359999999999985</v>
       </c>
       <c r="H37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129.04959999999966</v>
       </c>
     </row>
@@ -11114,7 +13306,7 @@
         <v>0.84740803100753515</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>268.69966160148562</v>
       </c>
       <c r="F38">
@@ -11122,11 +13314,11 @@
         <v>187.1</v>
       </c>
       <c r="G38">
-        <f>F38-AVERAGE($F$33:$F$52)</f>
+        <f t="shared" si="0"/>
         <v>11.95999999999998</v>
       </c>
       <c r="H38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>143.04159999999951</v>
       </c>
     </row>
@@ -11144,7 +13336,7 @@
         <v>0.45840015415593882</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>78.626958874306354</v>
       </c>
       <c r="F39">
@@ -11152,11 +13344,11 @@
         <v>233.5</v>
       </c>
       <c r="G39">
-        <f>F39-AVERAGE($F$33:$F$52)</f>
+        <f t="shared" si="0"/>
         <v>58.359999999999985</v>
       </c>
       <c r="H39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3405.8895999999982</v>
       </c>
     </row>
@@ -11174,7 +13366,7 @@
         <v>0.37359406282414365</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52.225415027709303</v>
       </c>
       <c r="F40">
@@ -11182,11 +13374,11 @@
         <v>219.7</v>
       </c>
       <c r="G40">
-        <f>F40-AVERAGE($F$33:$F$52)</f>
+        <f t="shared" si="0"/>
         <v>44.559999999999974</v>
       </c>
       <c r="H40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1985.5935999999977</v>
       </c>
     </row>
@@ -11204,7 +13396,7 @@
         <v>6.9346194098969804E-2</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7993979860298803</v>
       </c>
       <c r="F41">
@@ -11212,11 +13404,11 @@
         <v>211.7</v>
       </c>
       <c r="G41">
-        <f>F41-AVERAGE($F$33:$F$52)</f>
+        <f t="shared" si="0"/>
         <v>36.559999999999974</v>
       </c>
       <c r="H41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1336.6335999999981</v>
       </c>
     </row>
@@ -11234,7 +13426,7 @@
         <v>0.83720938924339572</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>262.27092558325677</v>
       </c>
       <c r="F42">
@@ -11242,11 +13434,11 @@
         <v>197.3</v>
       </c>
       <c r="G42">
-        <f>F42-AVERAGE($F$33:$F$52)</f>
+        <f t="shared" si="0"/>
         <v>22.159999999999997</v>
       </c>
       <c r="H42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>491.06559999999985</v>
       </c>
     </row>
@@ -11257,14 +13449,14 @@
       <c r="B43" s="10">
         <v>195.73190138827817</v>
       </c>
-      <c r="C43" s="82">
+      <c r="C43" s="66">
         <v>-30.431901388278163</v>
       </c>
       <c r="D43" s="10">
         <v>-1.5732150912619751</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>926.10062210588637</v>
       </c>
       <c r="F43">
@@ -11272,11 +13464,11 @@
         <v>165.3</v>
       </c>
       <c r="G43">
-        <f>F43-AVERAGE($F$33:$F$52)</f>
+        <f t="shared" si="0"/>
         <v>-9.8400000000000034</v>
       </c>
       <c r="H43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>96.825600000000065</v>
       </c>
     </row>
@@ -11287,14 +13479,14 @@
       <c r="B44" s="10">
         <v>170.88416415466912</v>
       </c>
-      <c r="C44" s="82">
+      <c r="C44" s="66">
         <v>-1.8841641546691221</v>
       </c>
       <c r="D44" s="10">
         <v>-9.7404215553947668E-2</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5500745617400074</v>
       </c>
       <c r="F44">
@@ -11302,11 +13494,11 @@
         <v>169</v>
       </c>
       <c r="G44">
-        <f>F44-AVERAGE($F$33:$F$52)</f>
+        <f t="shared" si="0"/>
         <v>-6.1400000000000148</v>
       </c>
       <c r="H44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37.699600000000181</v>
       </c>
     </row>
@@ -11317,14 +13509,14 @@
       <c r="B45" s="10">
         <v>190.09269861185629</v>
       </c>
-      <c r="C45" s="82">
+      <c r="C45" s="66">
         <v>-31.992698611856298</v>
       </c>
       <c r="D45" s="10">
         <v>-1.6539024500702131</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1023.5327644690719</v>
       </c>
       <c r="F45">
@@ -11332,11 +13524,11 @@
         <v>158.1</v>
       </c>
       <c r="G45">
-        <f>F45-AVERAGE($F$33:$F$52)</f>
+        <f t="shared" si="0"/>
         <v>-17.04000000000002</v>
       </c>
       <c r="H45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>290.36160000000069</v>
       </c>
     </row>
@@ -11347,14 +13539,14 @@
       <c r="B46" s="10">
         <v>156.96238230037747</v>
       </c>
-      <c r="C46" s="82">
+      <c r="C46" s="66">
         <v>-4.5623823003774646</v>
       </c>
       <c r="D46" s="10">
         <v>-0.23585804237079458</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.815332254797564</v>
       </c>
       <c r="F46">
@@ -11362,11 +13554,11 @@
         <v>152.4</v>
       </c>
       <c r="G46">
-        <f>F46-AVERAGE($F$33:$F$52)</f>
+        <f t="shared" si="0"/>
         <v>-22.740000000000009</v>
       </c>
       <c r="H46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>517.10760000000039</v>
       </c>
     </row>
@@ -11377,14 +13569,14 @@
       <c r="B47" s="10">
         <v>185.51084635601347</v>
       </c>
-      <c r="C47" s="82">
+      <c r="C47" s="66">
         <v>-12.610846356013468</v>
       </c>
       <c r="D47" s="10">
         <v>-0.65193342827104228</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>159.03344581497817</v>
       </c>
       <c r="F47">
@@ -11392,11 +13584,11 @@
         <v>172.9</v>
       </c>
       <c r="G47">
-        <f>F47-AVERAGE($F$33:$F$52)</f>
+        <f t="shared" si="0"/>
         <v>-2.2400000000000091</v>
       </c>
       <c r="H47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0176000000000407</v>
       </c>
     </row>
@@ -11407,14 +13599,14 @@
       <c r="B48" s="10">
         <v>130.35239419913651</v>
       </c>
-      <c r="C48" s="82">
+      <c r="C48" s="66">
         <v>-5.5523941991365149</v>
       </c>
       <c r="D48" s="10">
         <v>-0.28703794203544658</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30.82908134260482</v>
       </c>
       <c r="F48">
@@ -11422,29 +13614,29 @@
         <v>124.8</v>
       </c>
       <c r="G48">
-        <f>F48-AVERAGE($F$33:$F$52)</f>
+        <f t="shared" si="0"/>
         <v>-50.340000000000018</v>
       </c>
       <c r="H48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2534.1156000000019</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:10">
       <c r="A49" s="10">
         <v>17</v>
       </c>
       <c r="B49" s="10">
         <v>181.45766936046022</v>
       </c>
-      <c r="C49" s="82">
+      <c r="C49" s="66">
         <v>-0.65766936046020419</v>
       </c>
       <c r="D49" s="10">
         <v>-3.3999037711627711E-2</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.43252898768813397</v>
       </c>
       <c r="F49">
@@ -11452,29 +13644,29 @@
         <v>180.8</v>
       </c>
       <c r="G49">
-        <f>F49-AVERAGE($F$33:$F$52)</f>
+        <f t="shared" si="0"/>
         <v>5.6599999999999966</v>
       </c>
       <c r="H49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32.03559999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:10">
       <c r="A50" s="10">
         <v>18</v>
       </c>
       <c r="B50" s="10">
         <v>180.92899410017066</v>
       </c>
-      <c r="C50" s="82">
+      <c r="C50" s="66">
         <v>-15.828994100170661</v>
       </c>
       <c r="D50" s="10">
         <v>-0.81829958897925537</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>250.5570542232376</v>
       </c>
       <c r="F50">
@@ -11482,29 +13674,29 @@
         <v>165.1</v>
       </c>
       <c r="G50">
-        <f>F50-AVERAGE($F$33:$F$52)</f>
+        <f t="shared" si="0"/>
         <v>-10.04000000000002</v>
       </c>
       <c r="H50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100.80160000000041</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:10">
       <c r="A51" s="10">
         <v>19</v>
       </c>
       <c r="B51" s="10">
         <v>185.33462126925028</v>
       </c>
-      <c r="C51" s="82">
+      <c r="C51" s="66">
         <v>-22.134621269250289</v>
       </c>
       <c r="D51" s="10">
         <v>-1.1442768486876695</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>489.94145873314727</v>
       </c>
       <c r="F51">
@@ -11512,29 +13704,29 @@
         <v>163.19999999999999</v>
       </c>
       <c r="G51">
-        <f>F51-AVERAGE($F$33:$F$52)</f>
+        <f t="shared" si="0"/>
         <v>-11.940000000000026</v>
       </c>
       <c r="H51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>142.56360000000063</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="17" thickBot="1">
+    <row r="52" spans="1:10" ht="17" thickBot="1">
       <c r="A52" s="11">
         <v>20</v>
       </c>
       <c r="B52" s="11">
         <v>105.6808820522906</v>
       </c>
-      <c r="C52" s="83">
+      <c r="C52" s="67">
         <v>-29.780882052290593</v>
       </c>
       <c r="D52" s="11">
         <v>-1.5395598348581312</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>886.900935812444</v>
       </c>
       <c r="F52">
@@ -11542,19 +13734,74 @@
         <v>75.900000000000006</v>
       </c>
       <c r="G52">
-        <f>F52-AVERAGE($F$33:$F$52)</f>
+        <f t="shared" si="0"/>
         <v>-99.240000000000009</v>
       </c>
       <c r="H52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9848.5776000000023</v>
       </c>
     </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="102" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="102"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="102"/>
+      <c r="E56" s="102"/>
+      <c r="F56" s="102"/>
+      <c r="G56" s="102"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" s="102"/>
+      <c r="C58" s="102"/>
+      <c r="D58" s="102"/>
+      <c r="E58" s="102"/>
+      <c r="F58" s="102"/>
+      <c r="G58" s="102"/>
+      <c r="H58" s="102"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="101" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="102" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" s="102"/>
+      <c r="C60" s="102"/>
+      <c r="D60" s="102"/>
+      <c r="E60" s="102"/>
+      <c r="F60" s="102"/>
+      <c r="G60" s="102"/>
+      <c r="H60" s="102"/>
+      <c r="I60" s="103"/>
+      <c r="J60" s="103"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="A58:H58"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A56:G56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11563,10 +13810,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CDE872-99FE-B84F-B95A-9D5428FDC931}">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11574,7 +13821,7 @@
     <col min="1" max="1" width="22.83203125" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -11584,68 +13831,77 @@
     </row>
     <row r="2" spans="1:9" ht="17" thickBot="1"/>
     <row r="3" spans="1:9">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="41"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="75">
+      <c r="B4" s="59">
         <v>0.95652924736783607</v>
       </c>
       <c r="C4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="16" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="72">
+      <c r="B5" s="56">
         <v>0.91494820107007901</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="54">
         <f>'Regr. Results - One Variable'!B5</f>
         <v>0.6946043187617067</v>
       </c>
-      <c r="D5" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64"/>
+      <c r="D5" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="96"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="72">
+      <c r="B6" s="56">
         <v>0.90494210707832368</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="54">
         <f>'Regr. Results - One Variable'!B6</f>
         <v>0.67763789202624602</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="97"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="72">
+      <c r="B7" s="56">
         <v>10.792042085819126</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="54">
         <f>'Regr. Results - One Variable'!B7</f>
         <v>19.873828240526986</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="100"/>
     </row>
     <row r="8" spans="1:9" ht="17" thickBot="1">
       <c r="A8" s="11" t="s">
@@ -11653,6 +13909,12 @@
       </c>
       <c r="B8" s="11">
         <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="D9" s="93">
+        <f>C7-B7</f>
+        <v>9.08178615470786</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17" thickBot="1">
@@ -11760,7 +14022,7 @@
       <c r="A17" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="72">
+      <c r="B17" s="56">
         <v>121.72883991395686</v>
       </c>
       <c r="C17" s="10">
@@ -11769,7 +14031,7 @@
       <c r="D17" s="10">
         <v>14.445638822156969</v>
       </c>
-      <c r="E17" s="97">
+      <c r="E17" s="73">
         <v>5.6192263419075337E-11</v>
       </c>
       <c r="F17" s="10">
@@ -11789,7 +14051,7 @@
       <c r="A18" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="72">
+      <c r="B18" s="56">
         <v>1.516023201720863</v>
       </c>
       <c r="C18" s="10">
@@ -11798,7 +14060,7 @@
       <c r="D18" s="10">
         <v>9.8383185976745757</v>
       </c>
-      <c r="E18" s="97">
+      <c r="E18" s="73">
         <v>1.9650914092798555E-8</v>
       </c>
       <c r="F18" s="10">
@@ -11818,7 +14080,7 @@
       <c r="A19" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="96">
+      <c r="B19" s="72">
         <v>-33.000499722628881</v>
       </c>
       <c r="C19" s="11">
@@ -11827,7 +14089,7 @@
       <c r="D19" s="11">
         <v>-6.636409973876642</v>
       </c>
-      <c r="E19" s="98">
+      <c r="E19" s="74">
         <v>4.2046866612820725E-6</v>
       </c>
       <c r="F19" s="11">
@@ -11855,20 +14117,20 @@
       <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" ht="21">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="63" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="21">
-      <c r="A25" s="78" t="s">
+      <c r="A25" s="62" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="B26" s="80" t="s">
+      <c r="B26" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="80" t="s">
+      <c r="C26" s="64" t="s">
         <v>113</v>
       </c>
     </row>
@@ -11877,11 +14139,11 @@
         <f>A18</f>
         <v>Advertising (in millions)</v>
       </c>
-      <c r="B27" s="81" t="str">
+      <c r="B27" s="65" t="str">
         <f>IF(B18&gt;0, "Positive", "Negative")</f>
         <v>Positive</v>
       </c>
-      <c r="C27" s="81" t="str">
+      <c r="C27" s="65" t="str">
         <f>IF(E18&lt;0.05,"YES","NO")</f>
         <v>YES</v>
       </c>
@@ -11891,17 +14153,17 @@
         <f>A19</f>
         <v>Advertising Method</v>
       </c>
-      <c r="B28" s="81" t="str">
+      <c r="B28" s="65" t="str">
         <f>IF(B19&gt;0, "Positive", "Negative")</f>
         <v>Negative</v>
       </c>
-      <c r="C28" s="81" t="str">
+      <c r="C28" s="65" t="str">
         <f>IF(E19&lt;0.05,"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="21">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="62" t="s">
         <v>117</v>
       </c>
     </row>
@@ -11911,25 +14173,25 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="45" t="s">
+      <c r="E32" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="43" t="s">
         <v>74</v>
       </c>
     </row>
@@ -12301,18 +14563,912 @@
         <v>1</v>
       </c>
     </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="10">
+        <v>17</v>
+      </c>
+      <c r="B49" s="10">
+        <v>164.07469331685488</v>
+      </c>
+      <c r="C49" s="10">
+        <v>16.725306683145135</v>
+      </c>
+      <c r="D49" s="10">
+        <v>1.6384107900897775</v>
+      </c>
+      <c r="E49" s="1">
+        <v>180.8</v>
+      </c>
+      <c r="F49" s="1">
+        <v>49.7</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="10">
+        <v>18</v>
+      </c>
+      <c r="B50" s="10">
+        <v>163.61988635633861</v>
+      </c>
+      <c r="C50" s="10">
+        <v>1.4801136436613831</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0.14499191017990273</v>
+      </c>
+      <c r="E50" s="1">
+        <v>165.1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>49.4</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="10">
+        <v>19</v>
+      </c>
+      <c r="B51" s="10">
+        <v>167.40994436064076</v>
+      </c>
+      <c r="C51" s="10">
+        <v>-4.209944360640776</v>
+      </c>
+      <c r="D51" s="10">
+        <v>-0.41240608598839662</v>
+      </c>
+      <c r="E51" s="1">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="F51" s="1">
+        <v>51.9</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17" thickBot="1">
+      <c r="A52" s="11">
+        <v>20</v>
+      </c>
+      <c r="B52" s="11">
+        <v>98.885695642857769</v>
+      </c>
+      <c r="C52" s="11">
+        <v>-22.985695642857763</v>
+      </c>
+      <c r="D52" s="11">
+        <v>-2.2516783980367596</v>
+      </c>
+      <c r="E52" s="1">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="F52" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="C54" s="71"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="102" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" s="102"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="102"/>
+      <c r="E56" s="102"/>
+      <c r="F56" s="102"/>
+      <c r="G56" s="102"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="102" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="102"/>
+      <c r="C58" s="102"/>
+      <c r="D58" s="102"/>
+      <c r="E58" s="102"/>
+      <c r="F58" s="102"/>
+      <c r="G58" s="102"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="101" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="102" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="102"/>
+      <c r="C60" s="102"/>
+      <c r="D60" s="102"/>
+      <c r="E60" s="102"/>
+      <c r="F60" s="102"/>
+      <c r="G60" s="102"/>
+      <c r="H60" s="102"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D5:I7"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A60:H60"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1475692-4630-2740-995A-E7FAC12E2CC4}">
+  <dimension ref="A1:I62"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="9" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" thickBot="1"/>
+    <row r="3" spans="1:9">
+      <c r="A3" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="41"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.97269777865409357</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="47">
+        <v>0.94614096859860797</v>
+      </c>
+      <c r="C5" s="54">
+        <f>'Regr. Results - Two Variable'!B5</f>
+        <v>0.91494820107007901</v>
+      </c>
+      <c r="D5" s="94" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="96"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="47">
+        <v>0.93980461196315002</v>
+      </c>
+      <c r="C6" s="54">
+        <f>'Regr. Results - Two Variable'!B6</f>
+        <v>0.90494210707832368</v>
+      </c>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="97"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="47">
+        <v>8.5879824407306735</v>
+      </c>
+      <c r="C7" s="54">
+        <f>'Regr. Results - Two Variable'!B7</f>
+        <v>10.792042085819126</v>
+      </c>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="100"/>
+    </row>
+    <row r="8" spans="1:9" ht="17" thickBot="1">
+      <c r="A8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickBot="1">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="10">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10">
+        <v>22025.639479160924</v>
+      </c>
+      <c r="D12" s="10">
+        <v>11012.819739580462</v>
+      </c>
+      <c r="E12" s="10">
+        <v>149.31939962218323</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1.6432270668116537E-11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="10">
+        <v>17</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1253.8085208390721</v>
+      </c>
+      <c r="D13" s="10">
+        <v>73.753442402298361</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" ht="17" thickBot="1">
+      <c r="A14" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="11">
+        <v>19</v>
+      </c>
+      <c r="C14" s="11">
+        <v>23279.447999999997</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" thickBot="1"/>
+    <row r="16" spans="1:9">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="56">
+        <v>13.127040850001052</v>
+      </c>
+      <c r="C17" s="10">
+        <v>14.709904273665622</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.89239471622542865</v>
+      </c>
+      <c r="E17" s="89">
+        <v>0.38463954052983729</v>
+      </c>
+      <c r="F17" s="10">
+        <v>-17.90814433501556</v>
+      </c>
+      <c r="G17" s="10">
+        <v>44.162226035017667</v>
+      </c>
+      <c r="H17" s="10">
+        <v>-17.90814433501556</v>
+      </c>
+      <c r="I17" s="10">
+        <v>44.162226035017667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="56">
+        <v>110.11343616844411</v>
+      </c>
+      <c r="C18" s="10">
+        <v>8.6328012683794153</v>
+      </c>
+      <c r="D18" s="10">
+        <v>12.755238160268116</v>
+      </c>
+      <c r="E18" s="89">
+        <v>3.933604677174377E-10</v>
+      </c>
+      <c r="F18" s="10">
+        <v>91.899817572078007</v>
+      </c>
+      <c r="G18" s="10">
+        <v>128.32705476481021</v>
+      </c>
+      <c r="H18" s="10">
+        <v>91.899817572078007</v>
+      </c>
+      <c r="I18" s="10">
+        <v>128.32705476481021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17" thickBot="1">
+      <c r="A19" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="72">
+        <v>-32.779270862623463</v>
+      </c>
+      <c r="C19" s="11">
+        <v>3.9542232854197548</v>
+      </c>
+      <c r="D19" s="11">
+        <v>-8.2896863673554098</v>
+      </c>
+      <c r="E19" s="90">
+        <v>2.2412901655916934E-7</v>
+      </c>
+      <c r="F19" s="11">
+        <v>-41.121952748433301</v>
+      </c>
+      <c r="G19" s="11">
+        <v>-24.436588976813624</v>
+      </c>
+      <c r="H19" s="11">
+        <v>-41.121952748433301</v>
+      </c>
+      <c r="I19" s="11">
+        <v>-24.436588976813624</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="21">
+      <c r="A21" s="63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="21">
+      <c r="A25" s="62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="str">
+        <f>A18</f>
+        <v>Log Advertising (in millions)</v>
+      </c>
+      <c r="B27" s="65" t="str">
+        <f>IF(B18&gt;0, "Positive", "Negative")</f>
+        <v>Positive</v>
+      </c>
+      <c r="C27" s="65" t="str">
+        <f>IF(E18&lt;0.05,"YES","NO")</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="str">
+        <f>A19</f>
+        <v>Advertising Method</v>
+      </c>
+      <c r="B28" s="65" t="str">
+        <f>IF(B19&gt;0, "Positive", "Negative")</f>
+        <v>Negative</v>
+      </c>
+      <c r="C28" s="65" t="str">
+        <f>IF(E19&lt;0.05,"YES","NO")</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="22" thickBot="1">
+      <c r="A30" s="62" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17" thickBot="1">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="10">
+        <v>1</v>
+      </c>
+      <c r="B33" s="10">
+        <v>172.64907173369062</v>
+      </c>
+      <c r="C33" s="10">
+        <v>-11.049071733690624</v>
+      </c>
+      <c r="D33" s="10">
+        <v>-1.3601505614968237</v>
+      </c>
+      <c r="E33" s="1">
+        <v>161.6</v>
+      </c>
+      <c r="F33" s="1">
+        <v>28.1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="10">
+        <v>2</v>
+      </c>
+      <c r="B34" s="10">
+        <v>206.3043643315325</v>
+      </c>
+      <c r="C34" s="10">
+        <v>5.5956356684675086</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.68882772959023331</v>
+      </c>
+      <c r="E34" s="1">
+        <v>211.9</v>
+      </c>
+      <c r="F34" s="1">
+        <v>56.8</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="10">
+        <v>3</v>
+      </c>
+      <c r="B35" s="10">
+        <v>165.8973019332995</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0.90269806670050912</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0.11112293520015745</v>
+      </c>
+      <c r="E35" s="1">
+        <v>166.8</v>
+      </c>
+      <c r="F35" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="10">
+        <v>4</v>
+      </c>
+      <c r="B36" s="10">
+        <v>191.06485371446212</v>
+      </c>
+      <c r="C36" s="10">
+        <v>8.1351462855378713</v>
+      </c>
+      <c r="D36" s="10">
+        <v>1.0014437461197641</v>
+      </c>
+      <c r="E36" s="1">
+        <v>199.2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>41.3</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="10">
+        <v>5</v>
+      </c>
+      <c r="B37" s="10">
+        <v>198.94665340310945</v>
+      </c>
+      <c r="C37" s="10">
+        <v>-12.446653403109451</v>
+      </c>
+      <c r="D37" s="10">
+        <v>-1.5321941085218131</v>
+      </c>
+      <c r="E37" s="1">
+        <v>186.5</v>
+      </c>
+      <c r="F37" s="1">
+        <v>48.7</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="10">
+        <v>6</v>
+      </c>
+      <c r="B38" s="10">
+        <v>193.65653173510401</v>
+      </c>
+      <c r="C38" s="10">
+        <v>-6.5565317351040164</v>
+      </c>
+      <c r="D38" s="10">
+        <v>-0.80711489036506712</v>
+      </c>
+      <c r="E38" s="1">
+        <v>187.1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>43.6</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="10">
+        <v>7</v>
+      </c>
+      <c r="B39" s="10">
+        <v>219.08364188315181</v>
+      </c>
+      <c r="C39" s="10">
+        <v>14.416358116848187</v>
+      </c>
+      <c r="D39" s="10">
+        <v>1.7746665113577575</v>
+      </c>
+      <c r="E39" s="1">
+        <v>233.5</v>
+      </c>
+      <c r="F39" s="1">
+        <v>74.2</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="10">
+        <v>8</v>
+      </c>
+      <c r="B40" s="10">
+        <v>214.41606093938219</v>
+      </c>
+      <c r="C40" s="10">
+        <v>5.2839390606177972</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0.65045759982713958</v>
+      </c>
+      <c r="E40" s="1">
+        <v>219.7</v>
+      </c>
+      <c r="F40" s="1">
+        <v>67.3</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="10">
+        <v>9</v>
+      </c>
+      <c r="B41" s="10">
+        <v>213.55567807278192</v>
+      </c>
+      <c r="C41" s="10">
+        <v>-1.8556780727819273</v>
+      </c>
+      <c r="D41" s="10">
+        <v>-0.2284356218772246</v>
+      </c>
+      <c r="E41" s="1">
+        <v>211.7</v>
+      </c>
+      <c r="F41" s="1">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="10">
+        <v>10</v>
+      </c>
+      <c r="B42" s="10">
+        <v>199.72584225348612</v>
+      </c>
+      <c r="C42" s="10">
+        <v>-2.4258422534861097</v>
+      </c>
+      <c r="D42" s="10">
+        <v>-0.29862333983415507</v>
+      </c>
+      <c r="E42" s="1">
+        <v>197.3</v>
+      </c>
+      <c r="F42" s="1">
+        <v>49.5</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="10">
+        <v>11</v>
+      </c>
+      <c r="B43" s="10">
+        <v>174.3596985567012</v>
+      </c>
+      <c r="C43" s="10">
+        <v>-9.0596985567011927</v>
+      </c>
+      <c r="D43" s="10">
+        <v>-1.1152569533344041</v>
+      </c>
+      <c r="E43" s="1">
+        <v>165.3</v>
+      </c>
+      <c r="F43" s="1">
+        <v>57.8</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="10">
+        <v>12</v>
+      </c>
+      <c r="B44" s="10">
+        <v>160.98681798273762</v>
+      </c>
+      <c r="C44" s="10">
+        <v>8.0131820172623804</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0.98642983617548963</v>
+      </c>
+      <c r="E44" s="1">
+        <v>169</v>
+      </c>
+      <c r="F44" s="1">
+        <v>43.7</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="10">
+        <v>13</v>
+      </c>
+      <c r="B45" s="10">
+        <v>171.63602116213642</v>
+      </c>
+      <c r="C45" s="10">
+        <v>-13.536021162136421</v>
+      </c>
+      <c r="D45" s="10">
+        <v>-1.6662962489395539</v>
+      </c>
+      <c r="E45" s="1">
+        <v>158.1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>54.6</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="10">
+        <v>14</v>
+      </c>
+      <c r="B46" s="10">
+        <v>151.45116945495661</v>
+      </c>
+      <c r="C46" s="10">
+        <v>0.9488305450433927</v>
+      </c>
+      <c r="D46" s="10">
+        <v>0.11680188433124018</v>
+      </c>
+      <c r="E46" s="1">
+        <v>152.4</v>
+      </c>
+      <c r="F46" s="1">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="10">
+        <v>15</v>
+      </c>
+      <c r="B47" s="10">
+        <v>169.30279463154474</v>
+      </c>
+      <c r="C47" s="10">
+        <v>3.5972053684552634</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0.44281918152499272</v>
+      </c>
+      <c r="E47" s="1">
+        <v>172.9</v>
+      </c>
+      <c r="F47" s="1">
+        <v>52</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="10">
+        <v>16</v>
+      </c>
+      <c r="B48" s="10">
+        <v>125.25378662141324</v>
+      </c>
+      <c r="C48" s="10">
+        <v>-0.45378662141324355</v>
+      </c>
+      <c r="D48" s="10">
+        <v>-5.58615368595137E-2</v>
+      </c>
+      <c r="E48" s="1">
+        <v>124.8</v>
+      </c>
+      <c r="F48" s="1">
+        <v>20.7</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
     <row r="49" spans="1:7">
       <c r="A49" s="10">
         <v>17</v>
       </c>
       <c r="B49" s="10">
-        <v>164.07469331685488</v>
+        <v>167.13940091709773</v>
       </c>
       <c r="C49" s="10">
-        <v>16.725306683145135</v>
+        <v>13.66059908290228</v>
       </c>
       <c r="D49" s="10">
-        <v>1.6384107900897775</v>
+        <v>1.6816319018309294</v>
       </c>
       <c r="E49" s="1">
         <v>180.8</v>
@@ -12329,13 +15485,13 @@
         <v>18</v>
       </c>
       <c r="B50" s="10">
-        <v>163.61988635633861</v>
+        <v>166.84986426445519</v>
       </c>
       <c r="C50" s="10">
-        <v>1.4801136436613831</v>
+        <v>-1.7498642644551978</v>
       </c>
       <c r="D50" s="10">
-        <v>0.14499191017990273</v>
+        <v>-0.21540984792275999</v>
       </c>
       <c r="E50" s="1">
         <v>165.1</v>
@@ -12352,13 +15508,13 @@
         <v>19</v>
       </c>
       <c r="B51" s="10">
-        <v>167.40994436064076</v>
+        <v>169.21074136402271</v>
       </c>
       <c r="C51" s="10">
-        <v>-4.209944360640776</v>
+        <v>-6.0107413640227207</v>
       </c>
       <c r="D51" s="10">
-        <v>-0.41240608598839662</v>
+        <v>-0.73992761005968166</v>
       </c>
       <c r="E51" s="1">
         <v>163.19999999999999</v>
@@ -12375,13 +15531,13 @@
         <v>20</v>
       </c>
       <c r="B52" s="11">
-        <v>98.885695642857769</v>
+        <v>71.3097050449351</v>
       </c>
       <c r="C52" s="11">
-        <v>-22.985695642857763</v>
+        <v>4.5902949550649055</v>
       </c>
       <c r="D52" s="11">
-        <v>-2.2516783980367596</v>
+        <v>0.56506939325319316</v>
       </c>
       <c r="E52" s="1">
         <v>75.900000000000006</v>
@@ -12393,12 +15549,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="C54" s="95"/>
+    <row r="55" spans="1:7">
+      <c r="A55" s="101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="102" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="102"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="102"/>
+      <c r="E56" s="102"/>
+      <c r="F56" s="102"/>
+      <c r="G56" s="102"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="102" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="102"/>
+      <c r="C58" s="102"/>
+      <c r="D58" s="102"/>
+      <c r="E58" s="102"/>
+      <c r="F58" s="102"/>
+      <c r="G58" s="102"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="101" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="102" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" s="102"/>
+      <c r="C60" s="102"/>
+      <c r="D60" s="102"/>
+      <c r="E60" s="102"/>
+      <c r="F60" s="102"/>
+      <c r="G60" s="102"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="104"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="104"/>
+      <c r="D61" s="104"/>
+      <c r="E61" s="104"/>
+      <c r="F61" s="104"/>
+      <c r="G61" s="104"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" s="106"/>
+      <c r="C62" s="106"/>
+      <c r="D62" s="106"/>
+      <c r="E62" s="106"/>
+      <c r="F62" s="106"/>
+      <c r="G62" s="107"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D5:F7"/>
+  <mergeCells count="5">
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="D5:I7"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A60:G60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
